--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="96" windowWidth="17220" windowHeight="8208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="4" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="26">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -24,83 +24,83 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>National Renewable Energy Laboratory</t>
-  </si>
-  <si>
-    <t>Renewable Energy Futures Study: Volume 1</t>
-  </si>
-  <si>
-    <t>http://www.nrel.gov/docs/fy12osti/52409-1.pdf</t>
-  </si>
-  <si>
-    <t>Page 3-14, Figure 3-8</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Additional MW-miles</t>
-  </si>
-  <si>
-    <t>MW-miles</t>
-  </si>
-  <si>
-    <t>Annual cost (2010-2050)</t>
-  </si>
-  <si>
-    <t>Total cost</t>
-  </si>
-  <si>
-    <t>Cost per MW-mile</t>
-  </si>
-  <si>
-    <t>We assume that the currency figures in RE Futures are in real dollars</t>
-  </si>
-  <si>
-    <t>and the annual cost from 2010-2050 refers to a period of 40 years,</t>
-  </si>
-  <si>
-    <t>not 41 years (e.g. going from the end of 2010 to the end of 2050).</t>
-  </si>
-  <si>
-    <t>(value read from graph)</t>
-  </si>
-  <si>
     <t>Transmission Construction</t>
   </si>
   <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
-  </si>
-  <si>
-    <t>We assume NREL's 2010-2050 figures are in real 2010 dollars.</t>
-  </si>
-  <si>
-    <t>We adjust 2010 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>2010 $</t>
-  </si>
-  <si>
-    <t>2012 $</t>
-  </si>
-  <si>
-    <t>Cost per Unit Capacity Distance (2012$/(MW*mile))</t>
+    <t>Actividades previas</t>
+  </si>
+  <si>
+    <t>Inversiòn fisica</t>
+  </si>
+  <si>
+    <t>Indirectos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>USD/kV-km</t>
+  </si>
+  <si>
+    <t>kV</t>
+  </si>
+  <si>
+    <t>dos</t>
+  </si>
+  <si>
+    <t>circuitos,</t>
+  </si>
+  <si>
+    <t>tres</t>
+  </si>
+  <si>
+    <t>conductores</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>fase</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>MCM</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>circuito,</t>
+  </si>
+  <si>
+    <t>cuatro</t>
+  </si>
+  <si>
+    <t>conductor</t>
+  </si>
+  <si>
+    <t>de795</t>
+  </si>
+  <si>
+    <t>Cost per Unit Capacity Distance (2013$/kV-km)</t>
+  </si>
+  <si>
+    <t>Comisión Federal de Electricidad</t>
+  </si>
+  <si>
+    <t>Costos y Paràmetros de Referencia para la Formulaciòn de Proyectos de Inversiòn en el Sector Elèctrico</t>
+  </si>
+  <si>
+    <t>Page 2-3, Table 1.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,14 +120,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,12 +158,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,45 +210,37 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5"/>
@@ -279,6 +257,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -575,177 +556,1424 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>1.0549999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>20</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="11" width="11.42578125" style="6"/>
+    <col min="12" max="12" width="21.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="6" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="6"/>
+    <col min="16" max="16" width="14.5703125" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>400</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="I2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1113</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="8">
+        <v>102156</v>
+      </c>
+      <c r="M2" s="8">
+        <v>487662</v>
+      </c>
+      <c r="N2" s="8">
+        <v>4877</v>
+      </c>
+      <c r="O2" s="8">
+        <v>594694</v>
+      </c>
+      <c r="P2" s="6">
+        <f>O2/A2</f>
+        <v>1486.7349999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>400</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1113</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="8">
+        <v>68284</v>
+      </c>
+      <c r="M3" s="8">
+        <v>264095</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2641</v>
+      </c>
+      <c r="O3" s="8">
+        <v>335020</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P30" si="0">O3/A3</f>
+        <v>837.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>400</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
-        <f>122*10^6</f>
-        <v>122000000</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1113</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="8">
+        <v>102156</v>
+      </c>
+      <c r="M4" s="8">
+        <v>389209</v>
+      </c>
+      <c r="N4" s="8">
+        <v>3892</v>
+      </c>
+      <c r="O4" s="8">
+        <v>495257</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="0"/>
+        <v>1238.1424999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>400</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
-        <f>6.5*10^9</f>
-        <v>6500000000</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <f>B7*(2050-2010)</f>
-        <v>260000000000</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="14">
-        <f>B8/B6</f>
-        <v>2131.1475409836066</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1113</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="8">
+        <v>68284</v>
+      </c>
+      <c r="M5" s="8">
+        <v>206025</v>
+      </c>
+      <c r="N5" s="8">
+        <v>2060</v>
+      </c>
+      <c r="O5" s="8">
+        <v>276370</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="0"/>
+        <v>690.92499999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>230</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10">
-        <f>B9*About!$A$12</f>
-        <v>2248.3606557377047</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>24</v>
+      <c r="H6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1113</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="8">
+        <v>76752</v>
+      </c>
+      <c r="M6" s="8">
+        <v>370126</v>
+      </c>
+      <c r="N6" s="8">
+        <v>3701</v>
+      </c>
+      <c r="O6" s="8">
+        <v>450579</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="0"/>
+        <v>1959.0391304347827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>230</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1113</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="8">
+        <v>51348</v>
+      </c>
+      <c r="M7" s="8">
+        <v>199587</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1996</v>
+      </c>
+      <c r="O7" s="8">
+        <v>252931</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="0"/>
+        <v>1099.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>230</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1113</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="8">
+        <v>76752</v>
+      </c>
+      <c r="M8" s="8">
+        <v>332836</v>
+      </c>
+      <c r="N8" s="8">
+        <v>3328</v>
+      </c>
+      <c r="O8" s="8">
+        <v>412916</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="0"/>
+        <v>1795.2869565217391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>230</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1113</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="8">
+        <v>76752</v>
+      </c>
+      <c r="M9" s="8">
+        <v>220248</v>
+      </c>
+      <c r="N9" s="8">
+        <v>2202</v>
+      </c>
+      <c r="O9" s="8">
+        <v>299203</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="0"/>
+        <v>1300.8826086956522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>230</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1113</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="8">
+        <v>51348</v>
+      </c>
+      <c r="M10" s="8">
+        <v>115620</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1156</v>
+      </c>
+      <c r="O10" s="8">
+        <v>168124</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="0"/>
+        <v>730.97391304347821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>230</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6">
+        <v>900</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="8">
+        <v>76752</v>
+      </c>
+      <c r="M11" s="8">
+        <v>159775</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1598</v>
+      </c>
+      <c r="O11" s="8">
+        <v>238124</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="0"/>
+        <v>1035.3217391304347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>230</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6">
+        <v>900</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="8">
+        <v>51348</v>
+      </c>
+      <c r="M12" s="8">
+        <v>109584</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1096</v>
+      </c>
+      <c r="O12" s="8">
+        <v>162028</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="0"/>
+        <v>704.46956521739128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>161</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1113</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="8">
+        <v>76752</v>
+      </c>
+      <c r="M13" s="8">
+        <v>213457</v>
+      </c>
+      <c r="N13" s="8">
+        <v>2135</v>
+      </c>
+      <c r="O13" s="8">
+        <v>292343</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="0"/>
+        <v>1815.7950310559006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>161</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1113</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="8">
+        <v>51348</v>
+      </c>
+      <c r="M14" s="8">
+        <v>112209</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1122</v>
+      </c>
+      <c r="O14" s="8">
+        <v>164680</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="0"/>
+        <v>1022.8571428571429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>161</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="6">
+        <v>900</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="8">
+        <v>76752</v>
+      </c>
+      <c r="M15" s="8">
+        <v>153912</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1539</v>
+      </c>
+      <c r="O15" s="8">
+        <v>232203</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="0"/>
+        <v>1442.2546583850931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>161</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6">
+        <v>900</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="8">
+        <v>51348</v>
+      </c>
+      <c r="M16" s="8">
+        <v>106148</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1061</v>
+      </c>
+      <c r="O16" s="8">
+        <v>158558</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="0"/>
+        <v>984.83229813664593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>138</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1113</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="8">
+        <v>56429</v>
+      </c>
+      <c r="M17" s="8">
+        <v>165316</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1653</v>
+      </c>
+      <c r="O17" s="8">
+        <v>223398</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="0"/>
+        <v>1618.8260869565217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>138</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1113</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="8">
+        <v>42880</v>
+      </c>
+      <c r="M18" s="8">
+        <v>104584</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1046</v>
+      </c>
+      <c r="O18" s="8">
+        <v>148510</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="0"/>
+        <v>1076.159420289855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>138</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="6">
+        <v>795</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="8">
+        <v>56429</v>
+      </c>
+      <c r="M19" s="8">
+        <v>127829</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1278</v>
+      </c>
+      <c r="O19" s="8">
+        <v>185536</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="0"/>
+        <v>1344.463768115942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>138</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="8">
+        <v>42880</v>
+      </c>
+      <c r="M20" s="8">
+        <v>78690</v>
+      </c>
+      <c r="N20" s="6">
+        <v>787</v>
+      </c>
+      <c r="O20" s="8">
+        <v>122357</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="0"/>
+        <v>886.64492753623188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>115</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1113</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="8">
+        <v>56429</v>
+      </c>
+      <c r="M21" s="8">
+        <v>294476</v>
+      </c>
+      <c r="N21" s="8">
+        <v>2945</v>
+      </c>
+      <c r="O21" s="8">
+        <v>353850</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="0"/>
+        <v>3076.9565217391305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>115</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1113</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="8">
+        <v>42880</v>
+      </c>
+      <c r="M22" s="8">
+        <v>160151</v>
+      </c>
+      <c r="N22" s="8">
+        <v>1602</v>
+      </c>
+      <c r="O22" s="8">
+        <v>204633</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="0"/>
+        <v>1779.4173913043478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>115</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1113</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="8">
+        <v>102156</v>
+      </c>
+      <c r="M23" s="8">
+        <v>283736</v>
+      </c>
+      <c r="N23" s="8">
+        <v>2837</v>
+      </c>
+      <c r="O23" s="8">
+        <v>388729</v>
+      </c>
+      <c r="P23" s="6">
+        <f t="shared" si="0"/>
+        <v>3380.2521739130434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>115</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1113</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="8">
+        <v>56429</v>
+      </c>
+      <c r="M24" s="8">
+        <v>163066</v>
+      </c>
+      <c r="N24" s="8">
+        <v>1631</v>
+      </c>
+      <c r="O24" s="8">
+        <v>221125</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="0"/>
+        <v>1922.8260869565217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>115</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1113</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="8">
+        <v>42880</v>
+      </c>
+      <c r="M25" s="8">
+        <v>105748</v>
+      </c>
+      <c r="N25" s="8">
+        <v>1057</v>
+      </c>
+      <c r="O25" s="8">
+        <v>149686</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" si="0"/>
+        <v>1301.6173913043478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>115</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="6">
+        <v>795</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="8">
+        <v>102156</v>
+      </c>
+      <c r="M26" s="8">
+        <v>197463</v>
+      </c>
+      <c r="N26" s="8">
+        <v>1975</v>
+      </c>
+      <c r="O26" s="8">
+        <v>301593</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" si="0"/>
+        <v>2622.5478260869563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>115</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="6">
+        <v>795</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="8">
+        <v>56429</v>
+      </c>
+      <c r="M27" s="8">
+        <v>125333</v>
+      </c>
+      <c r="N27" s="8">
+        <v>1253</v>
+      </c>
+      <c r="O27" s="8">
+        <v>183015</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="0"/>
+        <v>1591.4347826086957</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>115</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="6">
+        <v>795</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="8">
+        <v>42880</v>
+      </c>
+      <c r="M28" s="8">
+        <v>77936</v>
+      </c>
+      <c r="N28" s="6">
+        <v>779</v>
+      </c>
+      <c r="O28" s="8">
+        <v>121595</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="0"/>
+        <v>1057.3478260869565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>115</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="6">
+        <v>477</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="8">
+        <v>56429</v>
+      </c>
+      <c r="M29" s="8">
+        <v>92134</v>
+      </c>
+      <c r="N29" s="6">
+        <v>921</v>
+      </c>
+      <c r="O29" s="8">
+        <v>149484</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="0"/>
+        <v>1299.8608695652174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>115</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="6">
+        <v>477</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="8">
+        <v>42880</v>
+      </c>
+      <c r="M30" s="8">
+        <v>62541</v>
+      </c>
+      <c r="N30" s="6">
+        <v>625</v>
+      </c>
+      <c r="O30" s="8">
+        <v>106047</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" si="0"/>
+        <v>922.14782608695657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P31" s="6">
+        <f>AVERAGE(P2:P30)</f>
+        <v>1449.1471876561718</v>
       </c>
     </row>
   </sheetData>
@@ -762,24 +1990,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6">
-        <f>Data!B10</f>
-        <v>2248.3606557377047</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <f>Data!P31</f>
+        <v>1449.1471876561718</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/elec/TCCpUCD/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB7854D-0F73-D94D-A9E4-43A644A5839E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="98" windowWidth="17220" windowHeight="8205"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="24240" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
+    <sheet name="Transmission costs" sheetId="4" r:id="rId2"/>
+    <sheet name="2012 USD " sheetId="5" r:id="rId3"/>
+    <sheet name="Calculations" sheetId="6" r:id="rId4"/>
+    <sheet name="TCCpUCD" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -29,54 +43,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>National Renewable Energy Laboratory</t>
-  </si>
-  <si>
-    <t>Renewable Energy Futures Study: Volume 1</t>
-  </si>
-  <si>
-    <t>http://www.nrel.gov/docs/fy12osti/52409-1.pdf</t>
-  </si>
-  <si>
-    <t>Page 3-14, Figure 3-8</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Additional MW-miles</t>
-  </si>
-  <si>
-    <t>MW-miles</t>
-  </si>
-  <si>
-    <t>Annual cost (2010-2050)</t>
-  </si>
-  <si>
-    <t>Total cost</t>
-  </si>
-  <si>
-    <t>Cost per MW-mile</t>
-  </si>
-  <si>
-    <t>We assume that the currency figures in RE Futures are in real dollars</t>
-  </si>
-  <si>
-    <t>and the annual cost from 2010-2050 refers to a period of 40 years,</t>
-  </si>
-  <si>
-    <t>not 41 years (e.g. going from the end of 2010 to the end of 2050).</t>
-  </si>
-  <si>
-    <t>(value read from graph)</t>
-  </si>
-  <si>
     <t>Transmission Construction</t>
   </si>
   <si>
@@ -86,26 +52,331 @@
     <t>See "cpi.xlsx" in the InputData folder for source information.</t>
   </si>
   <si>
-    <t>We assume NREL's 2010-2050 figures are in real 2010 dollars.</t>
-  </si>
-  <si>
     <t>We adjust 2010 dollars to 2012 dollars using the following conversion factor:</t>
   </si>
   <si>
-    <t>2010 $</t>
-  </si>
-  <si>
-    <t>2012 $</t>
-  </si>
-  <si>
     <t>Cost per Unit Capacity Distance (2012$/(MW*mile))</t>
+  </si>
+  <si>
+    <t>SENER &amp; CFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costo de construcción por nivel de tensión </t>
+  </si>
+  <si>
+    <t>base.energia.gob.mx/prodesen/PRODESEN2017/Capitulo4.xlsx</t>
+  </si>
+  <si>
+    <t>Table 4.2.14</t>
+  </si>
+  <si>
+    <r>
+      <t>TABLA 4.2.14. COSTO DE CONSTRUCCIÓN POR NIVEL DE TENSIÓN, CIRCUITO Y CONDUTOR POR FASE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t>1/</t>
+    </r>
+  </si>
+  <si>
+    <t>(Miles de dólares por kilómetro)</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Enlace</t>
+  </si>
+  <si>
+    <t>Tensión:230 Kv 
+Conductores por Fase: 1
+ Circuitos: 2</t>
+  </si>
+  <si>
+    <t>Tensión:230 Kv 
+Conductores por Fase: 2
+Circuitos: 2</t>
+  </si>
+  <si>
+    <t>Tensión:400 Kv 
+Conductores por Fase: 2
+Circuitos: 2</t>
+  </si>
+  <si>
+    <t>Tensión:400 Kv 
+Conductores por Fase: 3
+Circuitos: 2</t>
+  </si>
+  <si>
+    <t>Región de Transmisión</t>
+  </si>
+  <si>
+    <t>Acapulco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla </t>
+  </si>
+  <si>
+    <t>Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salamanca </t>
+  </si>
+  <si>
+    <t>Cananea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moctezuma </t>
+  </si>
+  <si>
+    <t>Carapan</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laguna </t>
+  </si>
+  <si>
+    <t>Coatzacoalcos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temascal </t>
+  </si>
+  <si>
+    <t>Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AguasCalientes </t>
+  </si>
+  <si>
+    <t>Grijalva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco </t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carapan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lázaro Cárdenas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huasteca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamazunchale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valles </t>
+  </si>
+  <si>
+    <t>Huasteca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poza Rica </t>
+  </si>
+  <si>
+    <t>Laguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo </t>
+  </si>
+  <si>
+    <t>Lázaro Cárdenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central </t>
+  </si>
+  <si>
+    <t>Lerma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida </t>
+  </si>
+  <si>
+    <t>Manzanillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara </t>
+  </si>
+  <si>
+    <t>Matamoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reynosa </t>
+  </si>
+  <si>
+    <t>Mazatlán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic </t>
+  </si>
+  <si>
+    <t>Mérida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún </t>
+  </si>
+  <si>
+    <t>Mexicali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensenada </t>
+  </si>
+  <si>
+    <t>Poza Rica</t>
+  </si>
+  <si>
+    <t>Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí </t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Reynosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo Laredo </t>
+  </si>
+  <si>
+    <t>Río Escondido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua </t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro </t>
+  </si>
+  <si>
+    <t>San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lerma </t>
+  </si>
+  <si>
+    <t>Tamazunchale</t>
+  </si>
+  <si>
+    <t>Temascal</t>
+  </si>
+  <si>
+    <t>Tepic</t>
+  </si>
+  <si>
+    <t>Tijuana</t>
+  </si>
+  <si>
+    <t>Valles</t>
+  </si>
+  <si>
+    <t>Veracruz</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t>1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Valor medio que incluye los conceptos de construcción, ingeniería, supervisión y pruebas, y derechos de vía.</t>
+    </r>
+  </si>
+  <si>
+    <t>Fuente: Elaborado por la SENER con datos de la CFE.</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>CPI-U</t>
+  </si>
+  <si>
+    <t>Multiply by to get 2012 Dollars</t>
+  </si>
+  <si>
+    <t>Transmission cost (USD/kV*km)</t>
+  </si>
+  <si>
+    <t>Transmission cost (USD/kV*mile)</t>
+  </si>
+  <si>
+    <t>230 kV (fase 1)</t>
+  </si>
+  <si>
+    <t>230 kv (fase 2)</t>
+  </si>
+  <si>
+    <t>400kV (fase 2)</t>
+  </si>
+  <si>
+    <t>400kV (fase 3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,22 +386,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -160,8 +415,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Soberana Sans Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Soberana Sans Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Soberana Sans Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,18 +490,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -225,59 +557,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{7723E4E7-38CE-F049-A171-ECF427C00EFA}"/>
+    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,6 +948,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -403,6 +1000,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,182 +1192,1834 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4"/>
       <c r="B4" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="12">
-        <v>1.0549999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C863AEE7-5817-754D-B897-6F1BF40631D5}">
+  <dimension ref="B2:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" customWidth="1"/>
-    <col min="2" max="2" width="11.53125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="4" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="12.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8" ht="16" thickBot="1">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="2:8" ht="16" thickBot="1">
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16" thickBot="1">
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="F4" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16" thickBot="1">
+      <c r="B5" s="16"/>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="2:8" ht="16" thickBot="1">
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="22">
+        <v>373.62599999999998</v>
+      </c>
+      <c r="F6" s="22">
+        <v>404.60399999999998</v>
+      </c>
+      <c r="G6" s="22">
+        <v>627.9855</v>
+      </c>
+      <c r="H6" s="22">
+        <v>748.95249999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16" thickBot="1">
+      <c r="B7" s="20">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="22">
+        <v>559.84001000000001</v>
+      </c>
+      <c r="F7" s="22">
+        <v>590.81800999999996</v>
+      </c>
+      <c r="G7" s="22">
+        <v>885.81980999999996</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1006.7868099999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16" thickBot="1">
+      <c r="B8" s="20">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="22">
+        <v>263.108</v>
+      </c>
+      <c r="F8" s="22">
+        <v>294.08600000000001</v>
+      </c>
+      <c r="G8" s="22">
+        <v>474.96</v>
+      </c>
+      <c r="H8" s="22">
+        <v>494.80599999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16" thickBot="1">
+      <c r="B9" s="20">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="22">
+        <v>623.10500000000002</v>
+      </c>
+      <c r="F9" s="22">
+        <v>654.08299999999997</v>
+      </c>
+      <c r="G9" s="22">
+        <v>973.41750000000002</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1094.3844999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16" thickBot="1">
+      <c r="B10" s="20">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="22">
+        <v>539.54200000000003</v>
+      </c>
+      <c r="F10" s="22">
+        <v>570.52</v>
+      </c>
+      <c r="G10" s="22">
+        <v>857.71500000000003</v>
+      </c>
+      <c r="H10" s="22">
+        <v>978.68200000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16" thickBot="1">
+      <c r="B11" s="20">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="22">
+        <v>717.86300000000006</v>
+      </c>
+      <c r="F11" s="22">
+        <v>748.84100000000001</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1104.6210000000001</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1225.588</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16" thickBot="1">
+      <c r="B12" s="20">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="22">
+        <v>314.7715</v>
+      </c>
+      <c r="F12" s="22">
+        <v>345.74950000000001</v>
+      </c>
+      <c r="G12" s="22">
+        <v>546.49450000000002</v>
+      </c>
+      <c r="H12" s="22">
+        <v>667.4615</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16" thickBot="1">
+      <c r="B13" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="C13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="22">
+        <v>387.55459999999999</v>
+      </c>
+      <c r="F13" s="22">
+        <v>418.5326</v>
+      </c>
+      <c r="G13" s="22">
+        <v>647.27106000000003</v>
+      </c>
+      <c r="H13" s="22">
+        <v>768.23806000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16" thickBot="1">
+      <c r="B14" s="20">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
-        <f>122*10^6</f>
-        <v>122000000</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="C14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="22">
+        <v>314.7715</v>
+      </c>
+      <c r="F14" s="22">
+        <v>345.74950000000001</v>
+      </c>
+      <c r="G14" s="22">
+        <v>546.49450000000002</v>
+      </c>
+      <c r="H14" s="22">
+        <v>667.4615</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16" thickBot="1">
+      <c r="B15" s="20">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="22">
+        <v>265.79149999999998</v>
+      </c>
+      <c r="F15" s="22">
+        <v>296.76949999999999</v>
+      </c>
+      <c r="G15" s="22">
+        <v>478.67649999999998</v>
+      </c>
+      <c r="H15" s="22">
+        <v>599.64350000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="16" thickBot="1">
+      <c r="B16" s="20">
+        <v>11</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="22">
+        <v>204.95349999999999</v>
+      </c>
+      <c r="F16" s="22">
+        <v>235.9315</v>
+      </c>
+      <c r="G16" s="22">
+        <v>394.43900000000002</v>
+      </c>
+      <c r="H16" s="22">
+        <v>515.40599999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16" thickBot="1">
+      <c r="B17" s="20">
+        <v>12</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="22">
+        <v>476.90249999999997</v>
+      </c>
+      <c r="F17" s="22">
+        <v>507.88049999999998</v>
+      </c>
+      <c r="G17" s="22">
+        <v>770.98350000000005</v>
+      </c>
+      <c r="H17" s="22">
+        <v>891.95050000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16" thickBot="1">
+      <c r="B18" s="20">
+        <v>13</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="22">
+        <v>464.73750000000001</v>
+      </c>
+      <c r="F18" s="22">
+        <v>495.71550000000002</v>
+      </c>
+      <c r="G18" s="22">
+        <v>754.14</v>
+      </c>
+      <c r="H18" s="22">
+        <v>875.10699999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="16" thickBot="1">
+      <c r="B19" s="20">
+        <v>14</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="22">
+        <v>464.73750000000001</v>
+      </c>
+      <c r="F19" s="22">
+        <v>495.71550000000002</v>
+      </c>
+      <c r="G19" s="22">
+        <v>754.14</v>
+      </c>
+      <c r="H19" s="22">
+        <v>875.10699999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="16" thickBot="1">
+      <c r="B20" s="20">
+        <v>15</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="22">
+        <v>662.1155</v>
+      </c>
+      <c r="F20" s="22">
+        <v>693.09349999999995</v>
+      </c>
+      <c r="G20" s="22">
+        <v>1027.432</v>
+      </c>
+      <c r="H20" s="22">
+        <v>1148.3989999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="16" thickBot="1">
+      <c r="B21" s="20">
+        <v>16</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="22">
+        <v>394.86349999999999</v>
+      </c>
+      <c r="F21" s="22">
+        <v>425.8415</v>
+      </c>
+      <c r="G21" s="22">
+        <v>657.39049999999997</v>
+      </c>
+      <c r="H21" s="22">
+        <v>778.35749999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="16" thickBot="1">
+      <c r="B22" s="20">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
-        <f>6.5*10^9</f>
-        <v>6500000000</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="C22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="22">
+        <v>394.86349999999999</v>
+      </c>
+      <c r="F22" s="22">
+        <v>425.8415</v>
+      </c>
+      <c r="G22" s="22">
+        <v>657.39049999999997</v>
+      </c>
+      <c r="H22" s="22">
+        <v>778.35749999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="16" thickBot="1">
+      <c r="B23" s="20">
+        <v>18</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="22">
+        <v>378.83765</v>
+      </c>
+      <c r="F23" s="22">
+        <v>409.81565000000001</v>
+      </c>
+      <c r="G23" s="22">
+        <v>635.20097999999996</v>
+      </c>
+      <c r="H23" s="22">
+        <v>756.16797999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="16" thickBot="1">
+      <c r="B24" s="20">
+        <v>19</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="22">
+        <v>409.71199999999999</v>
+      </c>
+      <c r="F24" s="22">
+        <v>440.69</v>
+      </c>
+      <c r="G24" s="22">
+        <v>677.95</v>
+      </c>
+      <c r="H24" s="22">
+        <v>798.91700000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="16" thickBot="1">
+      <c r="B25" s="20">
+        <v>20</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="22">
+        <v>435.87200000000001</v>
+      </c>
+      <c r="F25" s="22">
+        <v>466.85</v>
+      </c>
+      <c r="G25" s="22">
+        <v>714.17200000000003</v>
+      </c>
+      <c r="H25" s="22">
+        <v>835.13900000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="16" thickBot="1">
+      <c r="B26" s="20">
+        <v>21</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="22">
+        <v>452.62400000000002</v>
+      </c>
+      <c r="F26" s="22">
+        <v>483.60199999999998</v>
+      </c>
+      <c r="G26" s="22">
+        <v>737.36699999999996</v>
+      </c>
+      <c r="H26" s="22">
+        <v>858.33399999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="16" thickBot="1">
+      <c r="B27" s="20">
+        <v>22</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="22">
+        <v>431.6345</v>
+      </c>
+      <c r="F27" s="22">
+        <v>462.61250000000001</v>
+      </c>
+      <c r="G27" s="22">
+        <v>708.30499999999995</v>
+      </c>
+      <c r="H27" s="22">
+        <v>829.27200000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="16" thickBot="1">
+      <c r="B28" s="20">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <f>B7*(2050-2010)</f>
-        <v>260000000000</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="C28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="22">
+        <v>342.16399999999999</v>
+      </c>
+      <c r="F28" s="22">
+        <v>373.142</v>
+      </c>
+      <c r="G28" s="22">
+        <v>584.423</v>
+      </c>
+      <c r="H28" s="22">
+        <v>705.39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="16" thickBot="1">
+      <c r="B29" s="20">
+        <v>24</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="14">
-        <f>B8/B6</f>
-        <v>2131.1475409836066</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10">
-        <f>B9*About!$A$12</f>
-        <v>2248.3606557377047</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>24</v>
+      <c r="E29" s="22">
+        <v>539.54200000000003</v>
+      </c>
+      <c r="F29" s="22">
+        <v>570.52</v>
+      </c>
+      <c r="G29" s="22">
+        <v>857.71500000000003</v>
+      </c>
+      <c r="H29" s="22">
+        <v>978.68200000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="16" thickBot="1">
+      <c r="B30" s="20">
+        <v>25</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="22">
+        <v>627.33754999999996</v>
+      </c>
+      <c r="F30" s="22">
+        <v>658.31555000000003</v>
+      </c>
+      <c r="G30" s="22">
+        <v>979.27845000000002</v>
+      </c>
+      <c r="H30" s="22">
+        <v>1100.2454499999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="16" thickBot="1">
+      <c r="B31" s="20">
+        <v>26</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="22">
+        <v>434.32549999999998</v>
+      </c>
+      <c r="F31" s="22">
+        <v>423.9</v>
+      </c>
+      <c r="G31" s="22">
+        <v>708.3</v>
+      </c>
+      <c r="H31" s="22">
+        <v>847.17200000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="16" thickBot="1">
+      <c r="B32" s="20">
+        <v>27</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="22">
+        <v>414.81</v>
+      </c>
+      <c r="F32" s="22">
+        <v>445.78800000000001</v>
+      </c>
+      <c r="G32" s="22">
+        <v>685.00900000000001</v>
+      </c>
+      <c r="H32" s="22">
+        <v>494.80599999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="16" thickBot="1">
+      <c r="B33" s="20">
+        <v>28</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="22">
+        <v>465.89</v>
+      </c>
+      <c r="F33" s="22">
+        <v>496.86799999999999</v>
+      </c>
+      <c r="G33" s="22">
+        <v>755.7355</v>
+      </c>
+      <c r="H33" s="22">
+        <v>876.70249999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="16" thickBot="1">
+      <c r="B34" s="20">
+        <v>29</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="22">
+        <v>380.29199999999997</v>
+      </c>
+      <c r="F34" s="22">
+        <v>411.27</v>
+      </c>
+      <c r="G34" s="22">
+        <v>637.21500000000003</v>
+      </c>
+      <c r="H34" s="22">
+        <v>758.18200000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="16" thickBot="1">
+      <c r="B35" s="20">
+        <v>30</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="22">
+        <v>271.40800000000002</v>
+      </c>
+      <c r="F35" s="22">
+        <v>302.38600000000002</v>
+      </c>
+      <c r="G35" s="22">
+        <v>486.452</v>
+      </c>
+      <c r="H35" s="22">
+        <v>607.41899999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="16" thickBot="1">
+      <c r="B36" s="20">
+        <v>31</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="22">
+        <v>345.26400000000001</v>
+      </c>
+      <c r="F36" s="22">
+        <v>376.24200000000002</v>
+      </c>
+      <c r="G36" s="22">
+        <v>588.71450000000004</v>
+      </c>
+      <c r="H36" s="22">
+        <v>709.68150000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="16" thickBot="1">
+      <c r="B37" s="20">
+        <v>32</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="22">
+        <v>403.55700000000002</v>
+      </c>
+      <c r="F37" s="22">
+        <v>434.53500000000003</v>
+      </c>
+      <c r="G37" s="22">
+        <v>669.42750000000001</v>
+      </c>
+      <c r="H37" s="22">
+        <v>790.39449999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="16" thickBot="1">
+      <c r="B38" s="20">
+        <v>33</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="22">
+        <v>309.68150000000003</v>
+      </c>
+      <c r="F38" s="22">
+        <v>340.65949999999998</v>
+      </c>
+      <c r="G38" s="22">
+        <v>539.44600000000003</v>
+      </c>
+      <c r="H38" s="22">
+        <v>660.41300000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="16" thickBot="1">
+      <c r="B39" s="20">
+        <v>34</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="22">
+        <v>309.68150000000003</v>
+      </c>
+      <c r="F39" s="22">
+        <v>340.65949999999998</v>
+      </c>
+      <c r="G39" s="22">
+        <v>539.44600000000003</v>
+      </c>
+      <c r="H39" s="22">
+        <v>660.41300000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="16" thickBot="1">
+      <c r="B40" s="20">
+        <v>35</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="22">
+        <v>555.04700000000003</v>
+      </c>
+      <c r="F40" s="22">
+        <v>586.02499999999998</v>
+      </c>
+      <c r="G40" s="22">
+        <v>879.18299999999999</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1000.15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="16" thickBot="1">
+      <c r="B41" s="20">
+        <v>36</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="22">
+        <v>547.23950000000002</v>
+      </c>
+      <c r="F41" s="22">
+        <v>578.21749999999997</v>
+      </c>
+      <c r="G41" s="22">
+        <v>868.37324999999998</v>
+      </c>
+      <c r="H41" s="22">
+        <v>989.34024999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="16" thickBot="1">
+      <c r="B42" s="20">
+        <v>37</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="22">
+        <v>317.92950000000002</v>
+      </c>
+      <c r="F42" s="22">
+        <v>348.90750000000003</v>
+      </c>
+      <c r="G42" s="22">
+        <v>550.86699999999996</v>
+      </c>
+      <c r="H42" s="22">
+        <v>671.83399999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="16" thickBot="1">
+      <c r="B43" s="20">
+        <v>38</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="22">
+        <v>388.73050000000001</v>
+      </c>
+      <c r="F43" s="22">
+        <v>419.70850000000002</v>
+      </c>
+      <c r="G43" s="22">
+        <v>648.899</v>
+      </c>
+      <c r="H43" s="22">
+        <v>769.86599999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="16" thickBot="1">
+      <c r="B44" s="20">
+        <v>39</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="22">
+        <v>408.24650000000003</v>
+      </c>
+      <c r="F44" s="22">
+        <v>439.22449999999998</v>
+      </c>
+      <c r="G44" s="22">
+        <v>675.92150000000004</v>
+      </c>
+      <c r="H44" s="22">
+        <v>796.88850000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="16" thickBot="1">
+      <c r="B45" s="20">
+        <v>40</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="22">
+        <v>380.29199999999997</v>
+      </c>
+      <c r="F45" s="22">
+        <v>411.27</v>
+      </c>
+      <c r="G45" s="22">
+        <v>637.21500000000003</v>
+      </c>
+      <c r="H45" s="22">
+        <v>758.18200000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="16" thickBot="1">
+      <c r="B46" s="20">
+        <v>41</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="22">
+        <v>983.10199999999998</v>
+      </c>
+      <c r="F46" s="22">
+        <v>1014.08</v>
+      </c>
+      <c r="G46" s="22">
+        <v>1471.875</v>
+      </c>
+      <c r="H46" s="22">
+        <v>1592.8420000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="16" thickBot="1">
+      <c r="B47" s="20">
+        <v>42</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="22">
+        <v>591.92591000000004</v>
+      </c>
+      <c r="F47" s="22">
+        <v>622.90391</v>
+      </c>
+      <c r="G47" s="22">
+        <v>930.24639000000002</v>
+      </c>
+      <c r="H47" s="22">
+        <v>1051.2133899999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="16" thickBot="1">
+      <c r="B48" s="20">
+        <v>43</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="22">
+        <v>542.06174999999996</v>
+      </c>
+      <c r="F48" s="22">
+        <v>573.03975000000003</v>
+      </c>
+      <c r="G48" s="22">
+        <v>861.20375000000001</v>
+      </c>
+      <c r="H48" s="22">
+        <v>982.17075</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="16" thickBot="1">
+      <c r="B49" s="20">
+        <v>44</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="22">
+        <v>671.86625000000004</v>
+      </c>
+      <c r="F49" s="22">
+        <v>702.84424999999999</v>
+      </c>
+      <c r="G49" s="22">
+        <v>1040.93325</v>
+      </c>
+      <c r="H49" s="22">
+        <v>1161.9002499999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="16" thickBot="1">
+      <c r="B50" s="20">
+        <v>45</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="22">
+        <v>567.18299999999999</v>
+      </c>
+      <c r="F50" s="22">
+        <v>598.16099999999994</v>
+      </c>
+      <c r="G50" s="22">
+        <v>895.98699999999997</v>
+      </c>
+      <c r="H50" s="22">
+        <v>1016.954</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="16" thickBot="1">
+      <c r="B51" s="20">
+        <v>46</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="22">
+        <v>374.64994999999999</v>
+      </c>
+      <c r="F51" s="22">
+        <v>390.93338</v>
+      </c>
+      <c r="G51" s="22">
+        <v>629.40287999999998</v>
+      </c>
+      <c r="H51" s="22">
+        <v>750.36987999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="16" thickBot="1">
+      <c r="B52" s="20">
+        <v>47</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="22">
+        <v>402.6</v>
+      </c>
+      <c r="F52" s="22">
+        <v>433.5865</v>
+      </c>
+      <c r="G52" s="22">
+        <v>668.11500000000001</v>
+      </c>
+      <c r="H52" s="22">
+        <v>789.08199999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="16" thickBot="1">
+      <c r="B53" s="20">
+        <v>48</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="22">
+        <v>627.58275000000003</v>
+      </c>
+      <c r="F53" s="22">
+        <v>658.56074999999998</v>
+      </c>
+      <c r="G53" s="22">
+        <v>979.61775</v>
+      </c>
+      <c r="H53" s="22">
+        <v>1100.58475</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="16" thickBot="1">
+      <c r="B54" s="20">
+        <v>49</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="22">
+        <v>388.73050000000001</v>
+      </c>
+      <c r="F54" s="22">
+        <v>419.70850000000002</v>
+      </c>
+      <c r="G54" s="22">
+        <v>648.899</v>
+      </c>
+      <c r="H54" s="22">
+        <v>769.86599999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="16" thickBot="1">
+      <c r="B55" s="20">
+        <v>50</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="22">
+        <v>370.46800000000002</v>
+      </c>
+      <c r="F55" s="22">
+        <v>401.44600000000003</v>
+      </c>
+      <c r="G55" s="22">
+        <v>623.61300000000006</v>
+      </c>
+      <c r="H55" s="22">
+        <v>744.58</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="16" thickBot="1">
+      <c r="B56" s="20">
+        <v>51</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="22">
+        <v>222.989</v>
+      </c>
+      <c r="F56" s="22">
+        <v>253.96700000000001</v>
+      </c>
+      <c r="G56" s="22">
+        <v>419.41149999999999</v>
+      </c>
+      <c r="H56" s="22">
+        <v>540.37850000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="16" thickBot="1">
+      <c r="B57" s="20">
+        <v>52</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="22">
+        <v>561.50850000000003</v>
+      </c>
+      <c r="F57" s="22">
+        <v>592.48649999999998</v>
+      </c>
+      <c r="G57" s="22">
+        <v>888.13</v>
+      </c>
+      <c r="H57" s="22">
+        <v>1009.097</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="16" thickBot="1">
+      <c r="B58" s="20">
+        <v>53</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="22">
+        <v>555.04700000000003</v>
+      </c>
+      <c r="F58" s="22">
+        <v>586.02499999999998</v>
+      </c>
+      <c r="G58" s="22">
+        <v>879.18299999999999</v>
+      </c>
+      <c r="H58" s="22">
+        <v>1000.15</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="16" thickBot="1">
+      <c r="B59" s="20">
+        <v>54</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="22">
+        <v>380.01499999999999</v>
+      </c>
+      <c r="F59" s="22">
+        <v>410.99299999999999</v>
+      </c>
+      <c r="G59" s="22">
+        <v>636.83100000000002</v>
+      </c>
+      <c r="H59" s="22">
+        <v>757.798</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="16" thickBot="1">
+      <c r="B60" s="20">
+        <v>55</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="22">
+        <v>409.71199999999999</v>
+      </c>
+      <c r="F60" s="22">
+        <v>440.69</v>
+      </c>
+      <c r="G60" s="22">
+        <v>677.95</v>
+      </c>
+      <c r="H60" s="22">
+        <v>798.91700000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="16" thickBot="1">
+      <c r="B61" s="20">
+        <v>56</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="22">
+        <v>317.92950000000002</v>
+      </c>
+      <c r="F61" s="22">
+        <v>348.90750000000003</v>
+      </c>
+      <c r="G61" s="22">
+        <v>550.86699999999996</v>
+      </c>
+      <c r="H61" s="22">
+        <v>671.83399999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="16" thickBot="1">
+      <c r="B62" s="20">
+        <v>57</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="22">
+        <v>314.7715</v>
+      </c>
+      <c r="F62" s="22">
+        <v>345.74950000000001</v>
+      </c>
+      <c r="G62" s="22">
+        <v>546.49450000000002</v>
+      </c>
+      <c r="H62" s="22">
+        <v>667.4615</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D65250-D37D-AF4F-86F1-930CA0A6A0DE}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" style="27"/>
+    <col min="2" max="2" width="12" style="27" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="10.1640625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="28">
+        <v>1990</v>
+      </c>
+      <c r="B2" s="28">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="C2" s="29">
+        <f t="shared" ref="C2:C28" si="0">B$24/B2</f>
+        <v>1.7594032134659527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="28">
+        <v>1991</v>
+      </c>
+      <c r="B3" s="28">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="C3" s="29">
+        <f t="shared" si="0"/>
+        <v>1.6883553597650516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="28">
+        <v>1992</v>
+      </c>
+      <c r="B4" s="28">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="C4" s="29">
+        <f t="shared" si="0"/>
+        <v>1.639016393442623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="28">
+        <v>1993</v>
+      </c>
+      <c r="B5" s="28">
+        <v>144.5</v>
+      </c>
+      <c r="C5" s="29">
+        <f t="shared" si="0"/>
+        <v>1.5913771626297579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="28">
+        <v>1994</v>
+      </c>
+      <c r="B6" s="28">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="C6" s="29">
+        <f t="shared" si="0"/>
+        <v>1.5516464237516872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="28">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="28">
+        <v>152.4</v>
+      </c>
+      <c r="C7" s="29">
+        <f t="shared" si="0"/>
+        <v>1.5088845144356955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="28">
+        <v>1996</v>
+      </c>
+      <c r="B8" s="28">
+        <v>156.9</v>
+      </c>
+      <c r="C8" s="29">
+        <f t="shared" si="0"/>
+        <v>1.465608667941364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="28">
+        <v>1997</v>
+      </c>
+      <c r="B9" s="28">
+        <v>160.5</v>
+      </c>
+      <c r="C9" s="29">
+        <f t="shared" si="0"/>
+        <v>1.432735202492212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="28">
+        <v>1998</v>
+      </c>
+      <c r="B10" s="30">
+        <v>163</v>
+      </c>
+      <c r="C10" s="29">
+        <f t="shared" si="0"/>
+        <v>1.410760736196319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="28">
+        <v>1999</v>
+      </c>
+      <c r="B11" s="28">
+        <v>166.6</v>
+      </c>
+      <c r="C11" s="29">
+        <f t="shared" si="0"/>
+        <v>1.3802761104441779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="28">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="28">
+        <v>172.2</v>
+      </c>
+      <c r="C12" s="29">
+        <f t="shared" si="0"/>
+        <v>1.3353890824622534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="28">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="28">
+        <v>177.1</v>
+      </c>
+      <c r="C13" s="29">
+        <f t="shared" si="0"/>
+        <v>1.2984415584415585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="28">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="28">
+        <v>179.9</v>
+      </c>
+      <c r="C14" s="29">
+        <f t="shared" si="0"/>
+        <v>1.2782323513062812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="28">
+        <v>2003</v>
+      </c>
+      <c r="B15" s="30">
+        <v>184</v>
+      </c>
+      <c r="C15" s="29">
+        <f t="shared" si="0"/>
+        <v>1.2497500000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="28">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="28">
+        <v>188.9</v>
+      </c>
+      <c r="C16" s="29">
+        <f t="shared" si="0"/>
+        <v>1.2173319216516676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="28">
+        <v>2005</v>
+      </c>
+      <c r="B17" s="28">
+        <v>195.3</v>
+      </c>
+      <c r="C17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.1774398361495135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="28">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="28">
+        <v>201.6</v>
+      </c>
+      <c r="C18" s="29">
+        <f t="shared" si="0"/>
+        <v>1.1406448412698413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="28">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="28">
+        <v>207.34200000000001</v>
+      </c>
+      <c r="C19" s="29">
+        <f t="shared" si="0"/>
+        <v>1.1090565346143086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="28">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="28">
+        <v>215.303</v>
+      </c>
+      <c r="C20" s="29">
+        <f t="shared" si="0"/>
+        <v>1.0680482854395899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="28">
+        <v>2009</v>
+      </c>
+      <c r="B21" s="28">
+        <v>214.53700000000001</v>
+      </c>
+      <c r="C21" s="29">
+        <f t="shared" si="0"/>
+        <v>1.0718617301444506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="28">
+        <v>2010</v>
+      </c>
+      <c r="B22" s="28">
+        <v>218.05600000000001</v>
+      </c>
+      <c r="C22" s="29">
+        <f t="shared" si="0"/>
+        <v>1.0545639652199434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="28">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="28">
+        <v>224.93899999999999</v>
+      </c>
+      <c r="C23" s="29">
+        <f t="shared" si="0"/>
+        <v>1.0222949332930262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="28">
+        <v>2012</v>
+      </c>
+      <c r="B24" s="28">
+        <v>229.95400000000001</v>
+      </c>
+      <c r="C24" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="28">
+        <v>2013</v>
+      </c>
+      <c r="B25" s="28">
+        <v>232.95699999999999</v>
+      </c>
+      <c r="C25" s="29">
+        <f t="shared" si="0"/>
+        <v>0.98710920899565158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="28">
+        <v>2014</v>
+      </c>
+      <c r="B26" s="28">
+        <v>236.73599999999999</v>
+      </c>
+      <c r="C26" s="29">
+        <f t="shared" si="0"/>
+        <v>0.97135205460935392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="28">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="28">
+        <v>237.017</v>
+      </c>
+      <c r="C27" s="29">
+        <f t="shared" si="0"/>
+        <v>0.97020044975676856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="28">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="28">
+        <v>241.23699999999999</v>
+      </c>
+      <c r="C28" s="29">
+        <f t="shared" si="0"/>
+        <v>0.95322856775701903</v>
       </c>
     </row>
   </sheetData>
@@ -761,8 +3027,2014 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DE3BED-A7F4-8C4F-A05B-CA132FBBED1D}">
+  <dimension ref="B2:K60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="16.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="H2" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="35">
+        <f>'Transmission costs'!E6*1000/230</f>
+        <v>1624.4608695652173</v>
+      </c>
+      <c r="C4" s="35">
+        <f>'Transmission costs'!F6*1000/230</f>
+        <v>1759.1478260869565</v>
+      </c>
+      <c r="D4" s="35">
+        <f>'Transmission costs'!G6*1000/400</f>
+        <v>1569.9637499999999</v>
+      </c>
+      <c r="E4" s="35">
+        <f>'Transmission costs'!H6*1000/400</f>
+        <v>1872.3812499999999</v>
+      </c>
+      <c r="H4" s="35">
+        <f>B4*1.6093</f>
+        <v>2614.2448773913043</v>
+      </c>
+      <c r="I4" s="35">
+        <f t="shared" ref="I4:K19" si="0">C4*1.6093</f>
+        <v>2830.9965965217389</v>
+      </c>
+      <c r="J4" s="35">
+        <f t="shared" si="0"/>
+        <v>2526.5426628749997</v>
+      </c>
+      <c r="K4" s="35">
+        <f t="shared" si="0"/>
+        <v>3013.2231456249997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="35">
+        <f>'Transmission costs'!E7*1000/230</f>
+        <v>2434.087</v>
+      </c>
+      <c r="C5" s="35">
+        <f>'Transmission costs'!F7*1000/230</f>
+        <v>2568.7739565217394</v>
+      </c>
+      <c r="D5" s="35">
+        <f>'Transmission costs'!G7*1000/400</f>
+        <v>2214.5495249999999</v>
+      </c>
+      <c r="E5" s="35">
+        <f>'Transmission costs'!H7*1000/400</f>
+        <v>2516.9670249999999</v>
+      </c>
+      <c r="H5" s="35">
+        <f t="shared" ref="H5:K60" si="1">B5*1.6093</f>
+        <v>3917.1762091000001</v>
+      </c>
+      <c r="I5" s="35">
+        <f t="shared" si="0"/>
+        <v>4133.9279282304351</v>
+      </c>
+      <c r="J5" s="35">
+        <f t="shared" si="0"/>
+        <v>3563.8745505824995</v>
+      </c>
+      <c r="K5" s="35">
+        <f t="shared" si="0"/>
+        <v>4050.5550333324995</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="35">
+        <f>'Transmission costs'!E8*1000/230</f>
+        <v>1143.9478260869564</v>
+      </c>
+      <c r="C6" s="35">
+        <f>'Transmission costs'!F8*1000/230</f>
+        <v>1278.6347826086956</v>
+      </c>
+      <c r="D6" s="35">
+        <f>'Transmission costs'!G8*1000/400</f>
+        <v>1187.4000000000001</v>
+      </c>
+      <c r="E6" s="35">
+        <f>'Transmission costs'!H8*1000/400</f>
+        <v>1237.0150000000001</v>
+      </c>
+      <c r="H6" s="35">
+        <f t="shared" si="1"/>
+        <v>1840.9552365217389</v>
+      </c>
+      <c r="I6" s="35">
+        <f t="shared" si="0"/>
+        <v>2057.7069556521737</v>
+      </c>
+      <c r="J6" s="35">
+        <f t="shared" si="0"/>
+        <v>1910.88282</v>
+      </c>
+      <c r="K6" s="35">
+        <f t="shared" si="0"/>
+        <v>1990.7282395000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="35">
+        <f>'Transmission costs'!E9*1000/230</f>
+        <v>2709.1521739130435</v>
+      </c>
+      <c r="C7" s="35">
+        <f>'Transmission costs'!F9*1000/230</f>
+        <v>2843.8391304347824</v>
+      </c>
+      <c r="D7" s="35">
+        <f>'Transmission costs'!G9*1000/400</f>
+        <v>2433.5437499999998</v>
+      </c>
+      <c r="E7" s="35">
+        <f>'Transmission costs'!H9*1000/400</f>
+        <v>2735.9612499999998</v>
+      </c>
+      <c r="H7" s="35">
+        <f t="shared" si="1"/>
+        <v>4359.8385934782609</v>
+      </c>
+      <c r="I7" s="35">
+        <f t="shared" si="0"/>
+        <v>4576.5903126086951</v>
+      </c>
+      <c r="J7" s="35">
+        <f t="shared" si="0"/>
+        <v>3916.3019568749996</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" si="0"/>
+        <v>4402.9824396249996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="35">
+        <f>'Transmission costs'!E10*1000/230</f>
+        <v>2345.8347826086956</v>
+      </c>
+      <c r="C8" s="35">
+        <f>'Transmission costs'!F10*1000/230</f>
+        <v>2480.521739130435</v>
+      </c>
+      <c r="D8" s="35">
+        <f>'Transmission costs'!G10*1000/400</f>
+        <v>2144.2874999999999</v>
+      </c>
+      <c r="E8" s="35">
+        <f>'Transmission costs'!H10*1000/400</f>
+        <v>2446.7049999999999</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" si="1"/>
+        <v>3775.1519156521736</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="0"/>
+        <v>3991.9036347826091</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="0"/>
+        <v>3450.8018737499997</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="0"/>
+        <v>3937.4823564999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="35">
+        <f>'Transmission costs'!E11*1000/230</f>
+        <v>3121.1434782608694</v>
+      </c>
+      <c r="C9" s="35">
+        <f>'Transmission costs'!F11*1000/230</f>
+        <v>3255.8304347826088</v>
+      </c>
+      <c r="D9" s="35">
+        <f>'Transmission costs'!G11*1000/400</f>
+        <v>2761.5524999999998</v>
+      </c>
+      <c r="E9" s="35">
+        <f>'Transmission costs'!H11*1000/400</f>
+        <v>3063.97</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="1"/>
+        <v>5022.8561995652171</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="0"/>
+        <v>5239.6079186956522</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="0"/>
+        <v>4444.1664382499994</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="0"/>
+        <v>4930.8469209999994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="35">
+        <f>'Transmission costs'!E12*1000/230</f>
+        <v>1368.5717391304347</v>
+      </c>
+      <c r="C10" s="35">
+        <f>'Transmission costs'!F12*1000/230</f>
+        <v>1503.2586956521739</v>
+      </c>
+      <c r="D10" s="35">
+        <f>'Transmission costs'!G12*1000/400</f>
+        <v>1366.2362499999999</v>
+      </c>
+      <c r="E10" s="35">
+        <f>'Transmission costs'!H12*1000/400</f>
+        <v>1668.6537499999999</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="1"/>
+        <v>2202.4424997826086</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="0"/>
+        <v>2419.1942189130432</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="0"/>
+        <v>2198.6839971249997</v>
+      </c>
+      <c r="K10" s="35">
+        <f t="shared" si="0"/>
+        <v>2685.3644798749997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="35">
+        <f>'Transmission costs'!E13*1000/230</f>
+        <v>1685.02</v>
+      </c>
+      <c r="C11" s="35">
+        <f>'Transmission costs'!F13*1000/230</f>
+        <v>1819.7069565217391</v>
+      </c>
+      <c r="D11" s="35">
+        <f>'Transmission costs'!G13*1000/400</f>
+        <v>1618.1776500000001</v>
+      </c>
+      <c r="E11" s="35">
+        <f>'Transmission costs'!H13*1000/400</f>
+        <v>1920.5951500000001</v>
+      </c>
+      <c r="H11" s="35">
+        <f t="shared" si="1"/>
+        <v>2711.7026860000001</v>
+      </c>
+      <c r="I11" s="35">
+        <f t="shared" si="0"/>
+        <v>2928.4544051304347</v>
+      </c>
+      <c r="J11" s="35">
+        <f t="shared" si="0"/>
+        <v>2604.1332921450003</v>
+      </c>
+      <c r="K11" s="35">
+        <f t="shared" si="0"/>
+        <v>3090.8137748950003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="35">
+        <f>'Transmission costs'!E14*1000/230</f>
+        <v>1368.5717391304347</v>
+      </c>
+      <c r="C12" s="35">
+        <f>'Transmission costs'!F14*1000/230</f>
+        <v>1503.2586956521739</v>
+      </c>
+      <c r="D12" s="35">
+        <f>'Transmission costs'!G14*1000/400</f>
+        <v>1366.2362499999999</v>
+      </c>
+      <c r="E12" s="35">
+        <f>'Transmission costs'!H14*1000/400</f>
+        <v>1668.6537499999999</v>
+      </c>
+      <c r="H12" s="35">
+        <f t="shared" si="1"/>
+        <v>2202.4424997826086</v>
+      </c>
+      <c r="I12" s="35">
+        <f t="shared" si="0"/>
+        <v>2419.1942189130432</v>
+      </c>
+      <c r="J12" s="35">
+        <f t="shared" si="0"/>
+        <v>2198.6839971249997</v>
+      </c>
+      <c r="K12" s="35">
+        <f t="shared" si="0"/>
+        <v>2685.3644798749997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="35">
+        <f>'Transmission costs'!E15*1000/230</f>
+        <v>1155.6152173913044</v>
+      </c>
+      <c r="C13" s="35">
+        <f>'Transmission costs'!F15*1000/230</f>
+        <v>1290.3021739130436</v>
+      </c>
+      <c r="D13" s="35">
+        <f>'Transmission costs'!G15*1000/400</f>
+        <v>1196.6912500000001</v>
+      </c>
+      <c r="E13" s="35">
+        <f>'Transmission costs'!H15*1000/400</f>
+        <v>1499.1087500000001</v>
+      </c>
+      <c r="H13" s="35">
+        <f t="shared" si="1"/>
+        <v>1859.7315693478263</v>
+      </c>
+      <c r="I13" s="35">
+        <f t="shared" si="0"/>
+        <v>2076.4832884782609</v>
+      </c>
+      <c r="J13" s="35">
+        <f t="shared" si="0"/>
+        <v>1925.8352286250001</v>
+      </c>
+      <c r="K13" s="35">
+        <f t="shared" si="0"/>
+        <v>2412.5157113750001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="35">
+        <f>'Transmission costs'!E16*1000/230</f>
+        <v>891.10217391304343</v>
+      </c>
+      <c r="C14" s="35">
+        <f>'Transmission costs'!F16*1000/230</f>
+        <v>1025.7891304347827</v>
+      </c>
+      <c r="D14" s="35">
+        <f>'Transmission costs'!G16*1000/400</f>
+        <v>986.09749999999997</v>
+      </c>
+      <c r="E14" s="35">
+        <f>'Transmission costs'!H16*1000/400</f>
+        <v>1288.5149999999999</v>
+      </c>
+      <c r="H14" s="35">
+        <f t="shared" si="1"/>
+        <v>1434.0507284782607</v>
+      </c>
+      <c r="I14" s="35">
+        <f t="shared" si="0"/>
+        <v>1650.8024476086957</v>
+      </c>
+      <c r="J14" s="35">
+        <f t="shared" si="0"/>
+        <v>1586.92670675</v>
+      </c>
+      <c r="K14" s="35">
+        <f t="shared" si="0"/>
+        <v>2073.6071894999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="35">
+        <f>'Transmission costs'!E17*1000/230</f>
+        <v>2073.4891304347825</v>
+      </c>
+      <c r="C15" s="35">
+        <f>'Transmission costs'!F17*1000/230</f>
+        <v>2208.1760869565219</v>
+      </c>
+      <c r="D15" s="35">
+        <f>'Transmission costs'!G17*1000/400</f>
+        <v>1927.45875</v>
+      </c>
+      <c r="E15" s="35">
+        <f>'Transmission costs'!H17*1000/400</f>
+        <v>2229.8762499999998</v>
+      </c>
+      <c r="H15" s="35">
+        <f t="shared" si="1"/>
+        <v>3336.8660576086954</v>
+      </c>
+      <c r="I15" s="35">
+        <f t="shared" si="0"/>
+        <v>3553.6177767391305</v>
+      </c>
+      <c r="J15" s="35">
+        <f t="shared" si="0"/>
+        <v>3101.8593663749998</v>
+      </c>
+      <c r="K15" s="35">
+        <f t="shared" si="0"/>
+        <v>3588.5398491249994</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="35">
+        <f>'Transmission costs'!E18*1000/230</f>
+        <v>2020.5978260869565</v>
+      </c>
+      <c r="C16" s="35">
+        <f>'Transmission costs'!F18*1000/230</f>
+        <v>2155.2847826086959</v>
+      </c>
+      <c r="D16" s="35">
+        <f>'Transmission costs'!G18*1000/400</f>
+        <v>1885.35</v>
+      </c>
+      <c r="E16" s="35">
+        <f>'Transmission costs'!H18*1000/400</f>
+        <v>2187.7674999999999</v>
+      </c>
+      <c r="H16" s="35">
+        <f t="shared" si="1"/>
+        <v>3251.7480815217391</v>
+      </c>
+      <c r="I16" s="35">
+        <f t="shared" si="0"/>
+        <v>3468.4998006521741</v>
+      </c>
+      <c r="J16" s="35">
+        <f t="shared" si="0"/>
+        <v>3034.0937549999999</v>
+      </c>
+      <c r="K16" s="35">
+        <f t="shared" si="0"/>
+        <v>3520.7742377499999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="35">
+        <f>'Transmission costs'!E19*1000/230</f>
+        <v>2020.5978260869565</v>
+      </c>
+      <c r="C17" s="35">
+        <f>'Transmission costs'!F19*1000/230</f>
+        <v>2155.2847826086959</v>
+      </c>
+      <c r="D17" s="35">
+        <f>'Transmission costs'!G19*1000/400</f>
+        <v>1885.35</v>
+      </c>
+      <c r="E17" s="35">
+        <f>'Transmission costs'!H19*1000/400</f>
+        <v>2187.7674999999999</v>
+      </c>
+      <c r="H17" s="35">
+        <f t="shared" si="1"/>
+        <v>3251.7480815217391</v>
+      </c>
+      <c r="I17" s="35">
+        <f t="shared" si="0"/>
+        <v>3468.4998006521741</v>
+      </c>
+      <c r="J17" s="35">
+        <f t="shared" si="0"/>
+        <v>3034.0937549999999</v>
+      </c>
+      <c r="K17" s="35">
+        <f t="shared" si="0"/>
+        <v>3520.7742377499999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="35">
+        <f>'Transmission costs'!E20*1000/230</f>
+        <v>2878.7630434782609</v>
+      </c>
+      <c r="C18" s="35">
+        <f>'Transmission costs'!F20*1000/230</f>
+        <v>3013.45</v>
+      </c>
+      <c r="D18" s="35">
+        <f>'Transmission costs'!G20*1000/400</f>
+        <v>2568.58</v>
+      </c>
+      <c r="E18" s="35">
+        <f>'Transmission costs'!H20*1000/400</f>
+        <v>2870.9974999999999</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" si="1"/>
+        <v>4632.7933658695647</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" si="0"/>
+        <v>4849.5450849999997</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="0"/>
+        <v>4133.6157939999994</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" si="0"/>
+        <v>4620.2962767499994</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="35">
+        <f>'Transmission costs'!E21*1000/230</f>
+        <v>1716.7978260869565</v>
+      </c>
+      <c r="C19" s="35">
+        <f>'Transmission costs'!F21*1000/230</f>
+        <v>1851.4847826086957</v>
+      </c>
+      <c r="D19" s="35">
+        <f>'Transmission costs'!G21*1000/400</f>
+        <v>1643.4762499999999</v>
+      </c>
+      <c r="E19" s="35">
+        <f>'Transmission costs'!H21*1000/400</f>
+        <v>1945.89375</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="1"/>
+        <v>2762.8427415217393</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="0"/>
+        <v>2979.5944606521739</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="0"/>
+        <v>2644.846329125</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="0"/>
+        <v>3131.526811875</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="35">
+        <f>'Transmission costs'!E22*1000/230</f>
+        <v>1716.7978260869565</v>
+      </c>
+      <c r="C20" s="35">
+        <f>'Transmission costs'!F22*1000/230</f>
+        <v>1851.4847826086957</v>
+      </c>
+      <c r="D20" s="35">
+        <f>'Transmission costs'!G22*1000/400</f>
+        <v>1643.4762499999999</v>
+      </c>
+      <c r="E20" s="35">
+        <f>'Transmission costs'!H22*1000/400</f>
+        <v>1945.89375</v>
+      </c>
+      <c r="H20" s="35">
+        <f t="shared" si="1"/>
+        <v>2762.8427415217393</v>
+      </c>
+      <c r="I20" s="35">
+        <f t="shared" si="1"/>
+        <v>2979.5944606521739</v>
+      </c>
+      <c r="J20" s="35">
+        <f t="shared" si="1"/>
+        <v>2644.846329125</v>
+      </c>
+      <c r="K20" s="35">
+        <f t="shared" si="1"/>
+        <v>3131.526811875</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="35">
+        <f>'Transmission costs'!E23*1000/230</f>
+        <v>1647.1202173913045</v>
+      </c>
+      <c r="C21" s="35">
+        <f>'Transmission costs'!F23*1000/230</f>
+        <v>1781.8071739130435</v>
+      </c>
+      <c r="D21" s="35">
+        <f>'Transmission costs'!G23*1000/400</f>
+        <v>1588.00245</v>
+      </c>
+      <c r="E21" s="35">
+        <f>'Transmission costs'!H23*1000/400</f>
+        <v>1890.41995</v>
+      </c>
+      <c r="H21" s="35">
+        <f t="shared" si="1"/>
+        <v>2650.7105658478263</v>
+      </c>
+      <c r="I21" s="35">
+        <f t="shared" si="1"/>
+        <v>2867.4622849782609</v>
+      </c>
+      <c r="J21" s="35">
+        <f t="shared" si="1"/>
+        <v>2555.5723427849998</v>
+      </c>
+      <c r="K21" s="35">
+        <f t="shared" si="1"/>
+        <v>3042.2528255349998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="35">
+        <f>'Transmission costs'!E24*1000/230</f>
+        <v>1781.3565217391304</v>
+      </c>
+      <c r="C22" s="35">
+        <f>'Transmission costs'!F24*1000/230</f>
+        <v>1916.0434782608695</v>
+      </c>
+      <c r="D22" s="35">
+        <f>'Transmission costs'!G24*1000/400</f>
+        <v>1694.875</v>
+      </c>
+      <c r="E22" s="35">
+        <f>'Transmission costs'!H24*1000/400</f>
+        <v>1997.2925</v>
+      </c>
+      <c r="H22" s="35">
+        <f t="shared" si="1"/>
+        <v>2866.7370504347823</v>
+      </c>
+      <c r="I22" s="35">
+        <f t="shared" si="1"/>
+        <v>3083.4887695652174</v>
+      </c>
+      <c r="J22" s="35">
+        <f t="shared" si="1"/>
+        <v>2727.5623375</v>
+      </c>
+      <c r="K22" s="35">
+        <f t="shared" si="1"/>
+        <v>3214.24282025</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="35">
+        <f>'Transmission costs'!E25*1000/230</f>
+        <v>1895.0956521739131</v>
+      </c>
+      <c r="C23" s="35">
+        <f>'Transmission costs'!F25*1000/230</f>
+        <v>2029.7826086956522</v>
+      </c>
+      <c r="D23" s="35">
+        <f>'Transmission costs'!G25*1000/400</f>
+        <v>1785.43</v>
+      </c>
+      <c r="E23" s="35">
+        <f>'Transmission costs'!H25*1000/400</f>
+        <v>2087.8474999999999</v>
+      </c>
+      <c r="H23" s="35">
+        <f t="shared" si="1"/>
+        <v>3049.7774330434781</v>
+      </c>
+      <c r="I23" s="35">
+        <f t="shared" si="1"/>
+        <v>3266.5291521739132</v>
+      </c>
+      <c r="J23" s="35">
+        <f t="shared" si="1"/>
+        <v>2873.2924990000001</v>
+      </c>
+      <c r="K23" s="35">
+        <f t="shared" si="1"/>
+        <v>3359.9729817499997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="35">
+        <f>'Transmission costs'!E26*1000/230</f>
+        <v>1967.9304347826087</v>
+      </c>
+      <c r="C24" s="35">
+        <f>'Transmission costs'!F26*1000/230</f>
+        <v>2102.6173913043476</v>
+      </c>
+      <c r="D24" s="35">
+        <f>'Transmission costs'!G26*1000/400</f>
+        <v>1843.4175</v>
+      </c>
+      <c r="E24" s="35">
+        <f>'Transmission costs'!H26*1000/400</f>
+        <v>2145.835</v>
+      </c>
+      <c r="H24" s="35">
+        <f t="shared" si="1"/>
+        <v>3166.990448695652</v>
+      </c>
+      <c r="I24" s="35">
+        <f t="shared" si="1"/>
+        <v>3383.7421678260866</v>
+      </c>
+      <c r="J24" s="35">
+        <f t="shared" si="1"/>
+        <v>2966.6117827499997</v>
+      </c>
+      <c r="K24" s="35">
+        <f t="shared" si="1"/>
+        <v>3453.2922654999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="35">
+        <f>'Transmission costs'!E27*1000/230</f>
+        <v>1876.6717391304348</v>
+      </c>
+      <c r="C25" s="35">
+        <f>'Transmission costs'!F27*1000/230</f>
+        <v>2011.358695652174</v>
+      </c>
+      <c r="D25" s="35">
+        <f>'Transmission costs'!G27*1000/400</f>
+        <v>1770.7625</v>
+      </c>
+      <c r="E25" s="35">
+        <f>'Transmission costs'!H27*1000/400</f>
+        <v>2073.1799999999998</v>
+      </c>
+      <c r="H25" s="35">
+        <f t="shared" si="1"/>
+        <v>3020.1278297826088</v>
+      </c>
+      <c r="I25" s="35">
+        <f t="shared" si="1"/>
+        <v>3236.8795489130434</v>
+      </c>
+      <c r="J25" s="35">
+        <f t="shared" si="1"/>
+        <v>2849.6880912500001</v>
+      </c>
+      <c r="K25" s="35">
+        <f t="shared" si="1"/>
+        <v>3336.3685739999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="35">
+        <f>'Transmission costs'!E28*1000/230</f>
+        <v>1487.6695652173912</v>
+      </c>
+      <c r="C26" s="35">
+        <f>'Transmission costs'!F28*1000/230</f>
+        <v>1622.3565217391304</v>
+      </c>
+      <c r="D26" s="35">
+        <f>'Transmission costs'!G28*1000/400</f>
+        <v>1461.0574999999999</v>
+      </c>
+      <c r="E26" s="35">
+        <f>'Transmission costs'!H28*1000/400</f>
+        <v>1763.4749999999999</v>
+      </c>
+      <c r="H26" s="35">
+        <f t="shared" si="1"/>
+        <v>2394.1066313043475</v>
+      </c>
+      <c r="I26" s="35">
+        <f t="shared" si="1"/>
+        <v>2610.8583504347826</v>
+      </c>
+      <c r="J26" s="35">
+        <f t="shared" si="1"/>
+        <v>2351.2798347499997</v>
+      </c>
+      <c r="K26" s="35">
+        <f t="shared" si="1"/>
+        <v>2837.9603174999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="35">
+        <f>'Transmission costs'!E29*1000/230</f>
+        <v>2345.8347826086956</v>
+      </c>
+      <c r="C27" s="35">
+        <f>'Transmission costs'!F29*1000/230</f>
+        <v>2480.521739130435</v>
+      </c>
+      <c r="D27" s="35">
+        <f>'Transmission costs'!G29*1000/400</f>
+        <v>2144.2874999999999</v>
+      </c>
+      <c r="E27" s="35">
+        <f>'Transmission costs'!H29*1000/400</f>
+        <v>2446.7049999999999</v>
+      </c>
+      <c r="H27" s="35">
+        <f t="shared" si="1"/>
+        <v>3775.1519156521736</v>
+      </c>
+      <c r="I27" s="35">
+        <f t="shared" si="1"/>
+        <v>3991.9036347826091</v>
+      </c>
+      <c r="J27" s="35">
+        <f t="shared" si="1"/>
+        <v>3450.8018737499997</v>
+      </c>
+      <c r="K27" s="35">
+        <f t="shared" si="1"/>
+        <v>3937.4823564999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="35">
+        <f>'Transmission costs'!E30*1000/230</f>
+        <v>2727.554565217391</v>
+      </c>
+      <c r="C28" s="35">
+        <f>'Transmission costs'!F30*1000/230</f>
+        <v>2862.2415217391308</v>
+      </c>
+      <c r="D28" s="35">
+        <f>'Transmission costs'!G30*1000/400</f>
+        <v>2448.1961250000004</v>
+      </c>
+      <c r="E28" s="35">
+        <f>'Transmission costs'!H30*1000/400</f>
+        <v>2750.613625</v>
+      </c>
+      <c r="H28" s="35">
+        <f t="shared" si="1"/>
+        <v>4389.4535618043474</v>
+      </c>
+      <c r="I28" s="35">
+        <f t="shared" si="1"/>
+        <v>4606.2052809347833</v>
+      </c>
+      <c r="J28" s="35">
+        <f t="shared" si="1"/>
+        <v>3939.8820239625006</v>
+      </c>
+      <c r="K28" s="35">
+        <f t="shared" si="1"/>
+        <v>4426.5625067125002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="35">
+        <f>'Transmission costs'!E31*1000/230</f>
+        <v>1888.3717391304349</v>
+      </c>
+      <c r="C29" s="35">
+        <f>'Transmission costs'!F31*1000/230</f>
+        <v>1843.0434782608695</v>
+      </c>
+      <c r="D29" s="35">
+        <f>'Transmission costs'!G31*1000/400</f>
+        <v>1770.75</v>
+      </c>
+      <c r="E29" s="35">
+        <f>'Transmission costs'!H31*1000/400</f>
+        <v>2117.9299999999998</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="1"/>
+        <v>3038.9566397826088</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="1"/>
+        <v>2966.0098695652173</v>
+      </c>
+      <c r="J29" s="35">
+        <f t="shared" si="1"/>
+        <v>2849.6679749999998</v>
+      </c>
+      <c r="K29" s="35">
+        <f t="shared" si="1"/>
+        <v>3408.3847489999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="35">
+        <f>'Transmission costs'!E32*1000/230</f>
+        <v>1803.5217391304348</v>
+      </c>
+      <c r="C30" s="35">
+        <f>'Transmission costs'!F32*1000/230</f>
+        <v>1938.2086956521739</v>
+      </c>
+      <c r="D30" s="35">
+        <f>'Transmission costs'!G32*1000/400</f>
+        <v>1712.5225</v>
+      </c>
+      <c r="E30" s="35">
+        <f>'Transmission costs'!H32*1000/400</f>
+        <v>1237.0150000000001</v>
+      </c>
+      <c r="H30" s="35">
+        <f t="shared" si="1"/>
+        <v>2902.4075347826088</v>
+      </c>
+      <c r="I30" s="35">
+        <f t="shared" si="1"/>
+        <v>3119.1592539130434</v>
+      </c>
+      <c r="J30" s="35">
+        <f t="shared" si="1"/>
+        <v>2755.9624592499999</v>
+      </c>
+      <c r="K30" s="35">
+        <f t="shared" si="1"/>
+        <v>1990.7282395000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="35">
+        <f>'Transmission costs'!E33*1000/230</f>
+        <v>2025.608695652174</v>
+      </c>
+      <c r="C31" s="35">
+        <f>'Transmission costs'!F33*1000/230</f>
+        <v>2160.2956521739129</v>
+      </c>
+      <c r="D31" s="35">
+        <f>'Transmission costs'!G33*1000/400</f>
+        <v>1889.3387499999999</v>
+      </c>
+      <c r="E31" s="35">
+        <f>'Transmission costs'!H33*1000/400</f>
+        <v>2191.7562499999999</v>
+      </c>
+      <c r="H31" s="35">
+        <f t="shared" si="1"/>
+        <v>3259.8120739130436</v>
+      </c>
+      <c r="I31" s="35">
+        <f t="shared" si="1"/>
+        <v>3476.5637930434777</v>
+      </c>
+      <c r="J31" s="35">
+        <f t="shared" si="1"/>
+        <v>3040.5128503749997</v>
+      </c>
+      <c r="K31" s="35">
+        <f t="shared" si="1"/>
+        <v>3527.1933331249998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="35">
+        <f>'Transmission costs'!E34*1000/230</f>
+        <v>1653.4434782608696</v>
+      </c>
+      <c r="C32" s="35">
+        <f>'Transmission costs'!F34*1000/230</f>
+        <v>1788.1304347826087</v>
+      </c>
+      <c r="D32" s="35">
+        <f>'Transmission costs'!G34*1000/400</f>
+        <v>1593.0374999999999</v>
+      </c>
+      <c r="E32" s="35">
+        <f>'Transmission costs'!H34*1000/400</f>
+        <v>1895.4549999999999</v>
+      </c>
+      <c r="H32" s="35">
+        <f t="shared" si="1"/>
+        <v>2660.8865895652175</v>
+      </c>
+      <c r="I32" s="35">
+        <f t="shared" si="1"/>
+        <v>2877.6383086956521</v>
+      </c>
+      <c r="J32" s="35">
+        <f t="shared" si="1"/>
+        <v>2563.6752487499998</v>
+      </c>
+      <c r="K32" s="35">
+        <f t="shared" si="1"/>
+        <v>3050.3557314999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="35">
+        <f>'Transmission costs'!E35*1000/230</f>
+        <v>1180.0347826086957</v>
+      </c>
+      <c r="C33" s="35">
+        <f>'Transmission costs'!F35*1000/230</f>
+        <v>1314.7217391304348</v>
+      </c>
+      <c r="D33" s="35">
+        <f>'Transmission costs'!G35*1000/400</f>
+        <v>1216.1300000000001</v>
+      </c>
+      <c r="E33" s="35">
+        <f>'Transmission costs'!H35*1000/400</f>
+        <v>1518.5474999999999</v>
+      </c>
+      <c r="H33" s="35">
+        <f t="shared" si="1"/>
+        <v>1899.0299756521738</v>
+      </c>
+      <c r="I33" s="35">
+        <f t="shared" si="1"/>
+        <v>2115.7816947826086</v>
+      </c>
+      <c r="J33" s="35">
+        <f t="shared" si="1"/>
+        <v>1957.118009</v>
+      </c>
+      <c r="K33" s="35">
+        <f t="shared" si="1"/>
+        <v>2443.7984917499998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="35">
+        <f>'Transmission costs'!E36*1000/230</f>
+        <v>1501.1478260869565</v>
+      </c>
+      <c r="C34" s="35">
+        <f>'Transmission costs'!F36*1000/230</f>
+        <v>1635.8347826086956</v>
+      </c>
+      <c r="D34" s="35">
+        <f>'Transmission costs'!G36*1000/400</f>
+        <v>1471.7862500000001</v>
+      </c>
+      <c r="E34" s="35">
+        <f>'Transmission costs'!H36*1000/400</f>
+        <v>1774.2037499999999</v>
+      </c>
+      <c r="H34" s="35">
+        <f t="shared" si="1"/>
+        <v>2415.7971965217389</v>
+      </c>
+      <c r="I34" s="35">
+        <f t="shared" si="1"/>
+        <v>2632.5489156521739</v>
+      </c>
+      <c r="J34" s="35">
+        <f t="shared" si="1"/>
+        <v>2368.5456121249999</v>
+      </c>
+      <c r="K34" s="35">
+        <f t="shared" si="1"/>
+        <v>2855.2260948749999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="35">
+        <f>'Transmission costs'!E37*1000/230</f>
+        <v>1754.5956521739131</v>
+      </c>
+      <c r="C35" s="35">
+        <f>'Transmission costs'!F37*1000/230</f>
+        <v>1889.2826086956522</v>
+      </c>
+      <c r="D35" s="35">
+        <f>'Transmission costs'!G37*1000/400</f>
+        <v>1673.5687499999999</v>
+      </c>
+      <c r="E35" s="35">
+        <f>'Transmission costs'!H37*1000/400</f>
+        <v>1975.9862499999999</v>
+      </c>
+      <c r="H35" s="35">
+        <f t="shared" si="1"/>
+        <v>2823.6707830434784</v>
+      </c>
+      <c r="I35" s="35">
+        <f t="shared" si="1"/>
+        <v>3040.422502173913</v>
+      </c>
+      <c r="J35" s="35">
+        <f t="shared" si="1"/>
+        <v>2693.2741893749999</v>
+      </c>
+      <c r="K35" s="35">
+        <f t="shared" si="1"/>
+        <v>3179.9546721249999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="35">
+        <f>'Transmission costs'!E38*1000/230</f>
+        <v>1346.4413043478262</v>
+      </c>
+      <c r="C36" s="35">
+        <f>'Transmission costs'!F38*1000/230</f>
+        <v>1481.1282608695651</v>
+      </c>
+      <c r="D36" s="35">
+        <f>'Transmission costs'!G38*1000/400</f>
+        <v>1348.615</v>
+      </c>
+      <c r="E36" s="35">
+        <f>'Transmission costs'!H38*1000/400</f>
+        <v>1651.0325</v>
+      </c>
+      <c r="H36" s="35">
+        <f t="shared" si="1"/>
+        <v>2166.8279910869564</v>
+      </c>
+      <c r="I36" s="35">
+        <f t="shared" si="1"/>
+        <v>2383.579710217391</v>
+      </c>
+      <c r="J36" s="35">
+        <f t="shared" si="1"/>
+        <v>2170.3261195</v>
+      </c>
+      <c r="K36" s="35">
+        <f t="shared" si="1"/>
+        <v>2657.00660225</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="35">
+        <f>'Transmission costs'!E39*1000/230</f>
+        <v>1346.4413043478262</v>
+      </c>
+      <c r="C37" s="35">
+        <f>'Transmission costs'!F39*1000/230</f>
+        <v>1481.1282608695651</v>
+      </c>
+      <c r="D37" s="35">
+        <f>'Transmission costs'!G39*1000/400</f>
+        <v>1348.615</v>
+      </c>
+      <c r="E37" s="35">
+        <f>'Transmission costs'!H39*1000/400</f>
+        <v>1651.0325</v>
+      </c>
+      <c r="H37" s="35">
+        <f t="shared" si="1"/>
+        <v>2166.8279910869564</v>
+      </c>
+      <c r="I37" s="35">
+        <f t="shared" si="1"/>
+        <v>2383.579710217391</v>
+      </c>
+      <c r="J37" s="35">
+        <f t="shared" si="1"/>
+        <v>2170.3261195</v>
+      </c>
+      <c r="K37" s="35">
+        <f t="shared" si="1"/>
+        <v>2657.00660225</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="35">
+        <f>'Transmission costs'!E40*1000/230</f>
+        <v>2413.2478260869566</v>
+      </c>
+      <c r="C38" s="35">
+        <f>'Transmission costs'!F40*1000/230</f>
+        <v>2547.9347826086955</v>
+      </c>
+      <c r="D38" s="35">
+        <f>'Transmission costs'!G40*1000/400</f>
+        <v>2197.9575</v>
+      </c>
+      <c r="E38" s="35">
+        <f>'Transmission costs'!H40*1000/400</f>
+        <v>2500.375</v>
+      </c>
+      <c r="H38" s="35">
+        <f t="shared" si="1"/>
+        <v>3883.6397265217392</v>
+      </c>
+      <c r="I38" s="35">
+        <f t="shared" si="1"/>
+        <v>4100.3914456521734</v>
+      </c>
+      <c r="J38" s="35">
+        <f t="shared" si="1"/>
+        <v>3537.17300475</v>
+      </c>
+      <c r="K38" s="35">
+        <f t="shared" si="1"/>
+        <v>4023.8534875</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="35">
+        <f>'Transmission costs'!E41*1000/230</f>
+        <v>2379.3021739130436</v>
+      </c>
+      <c r="C39" s="35">
+        <f>'Transmission costs'!F41*1000/230</f>
+        <v>2513.9891304347825</v>
+      </c>
+      <c r="D39" s="35">
+        <f>'Transmission costs'!G41*1000/400</f>
+        <v>2170.933125</v>
+      </c>
+      <c r="E39" s="35">
+        <f>'Transmission costs'!H41*1000/400</f>
+        <v>2473.350625</v>
+      </c>
+      <c r="H39" s="35">
+        <f t="shared" si="1"/>
+        <v>3829.010988478261</v>
+      </c>
+      <c r="I39" s="35">
+        <f t="shared" si="1"/>
+        <v>4045.7627076086956</v>
+      </c>
+      <c r="J39" s="35">
+        <f t="shared" si="1"/>
+        <v>3493.6826780625001</v>
+      </c>
+      <c r="K39" s="35">
+        <f t="shared" si="1"/>
+        <v>3980.3631608125002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="35">
+        <f>'Transmission costs'!E42*1000/230</f>
+        <v>1382.3021739130436</v>
+      </c>
+      <c r="C40" s="35">
+        <f>'Transmission costs'!F42*1000/230</f>
+        <v>1516.9891304347825</v>
+      </c>
+      <c r="D40" s="35">
+        <f>'Transmission costs'!G42*1000/400</f>
+        <v>1377.1675</v>
+      </c>
+      <c r="E40" s="35">
+        <f>'Transmission costs'!H42*1000/400</f>
+        <v>1679.585</v>
+      </c>
+      <c r="H40" s="35">
+        <f t="shared" si="1"/>
+        <v>2224.538888478261</v>
+      </c>
+      <c r="I40" s="35">
+        <f t="shared" si="1"/>
+        <v>2441.2906076086956</v>
+      </c>
+      <c r="J40" s="35">
+        <f t="shared" si="1"/>
+        <v>2216.2756577499999</v>
+      </c>
+      <c r="K40" s="35">
+        <f t="shared" si="1"/>
+        <v>2702.9561404999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="35">
+        <f>'Transmission costs'!E43*1000/230</f>
+        <v>1690.1326086956522</v>
+      </c>
+      <c r="C41" s="35">
+        <f>'Transmission costs'!F43*1000/230</f>
+        <v>1824.8195652173913</v>
+      </c>
+      <c r="D41" s="35">
+        <f>'Transmission costs'!G43*1000/400</f>
+        <v>1622.2474999999999</v>
+      </c>
+      <c r="E41" s="35">
+        <f>'Transmission costs'!H43*1000/400</f>
+        <v>1924.665</v>
+      </c>
+      <c r="H41" s="35">
+        <f t="shared" si="1"/>
+        <v>2719.930407173913</v>
+      </c>
+      <c r="I41" s="35">
+        <f t="shared" si="1"/>
+        <v>2936.6821263043475</v>
+      </c>
+      <c r="J41" s="35">
+        <f t="shared" si="1"/>
+        <v>2610.6829017499999</v>
+      </c>
+      <c r="K41" s="35">
+        <f t="shared" si="1"/>
+        <v>3097.3633844999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="35">
+        <f>'Transmission costs'!E44*1000/230</f>
+        <v>1774.9847826086957</v>
+      </c>
+      <c r="C42" s="35">
+        <f>'Transmission costs'!F44*1000/230</f>
+        <v>1909.6717391304348</v>
+      </c>
+      <c r="D42" s="35">
+        <f>'Transmission costs'!G44*1000/400</f>
+        <v>1689.80375</v>
+      </c>
+      <c r="E42" s="35">
+        <f>'Transmission costs'!H44*1000/400</f>
+        <v>1992.2212500000001</v>
+      </c>
+      <c r="H42" s="35">
+        <f t="shared" si="1"/>
+        <v>2856.483010652174</v>
+      </c>
+      <c r="I42" s="35">
+        <f t="shared" si="1"/>
+        <v>3073.2347297826086</v>
+      </c>
+      <c r="J42" s="35">
+        <f t="shared" si="1"/>
+        <v>2719.4011748749999</v>
+      </c>
+      <c r="K42" s="35">
+        <f t="shared" si="1"/>
+        <v>3206.0816576249999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="35">
+        <f>'Transmission costs'!E45*1000/230</f>
+        <v>1653.4434782608696</v>
+      </c>
+      <c r="C43" s="35">
+        <f>'Transmission costs'!F45*1000/230</f>
+        <v>1788.1304347826087</v>
+      </c>
+      <c r="D43" s="35">
+        <f>'Transmission costs'!G45*1000/400</f>
+        <v>1593.0374999999999</v>
+      </c>
+      <c r="E43" s="35">
+        <f>'Transmission costs'!H45*1000/400</f>
+        <v>1895.4549999999999</v>
+      </c>
+      <c r="H43" s="35">
+        <f t="shared" si="1"/>
+        <v>2660.8865895652175</v>
+      </c>
+      <c r="I43" s="35">
+        <f t="shared" si="1"/>
+        <v>2877.6383086956521</v>
+      </c>
+      <c r="J43" s="35">
+        <f t="shared" si="1"/>
+        <v>2563.6752487499998</v>
+      </c>
+      <c r="K43" s="35">
+        <f t="shared" si="1"/>
+        <v>3050.3557314999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="35">
+        <f>'Transmission costs'!E46*1000/230</f>
+        <v>4274.3565217391306</v>
+      </c>
+      <c r="C44" s="35">
+        <f>'Transmission costs'!F46*1000/230</f>
+        <v>4409.04347826087</v>
+      </c>
+      <c r="D44" s="35">
+        <f>'Transmission costs'!G46*1000/400</f>
+        <v>3679.6875</v>
+      </c>
+      <c r="E44" s="35">
+        <f>'Transmission costs'!H46*1000/400</f>
+        <v>3982.105</v>
+      </c>
+      <c r="H44" s="35">
+        <f t="shared" si="1"/>
+        <v>6878.7219504347822</v>
+      </c>
+      <c r="I44" s="35">
+        <f t="shared" si="1"/>
+        <v>7095.4736695652182</v>
+      </c>
+      <c r="J44" s="35">
+        <f t="shared" si="1"/>
+        <v>5921.7210937499995</v>
+      </c>
+      <c r="K44" s="35">
+        <f t="shared" si="1"/>
+        <v>6408.4015764999995</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="35">
+        <f>'Transmission costs'!E47*1000/230</f>
+        <v>2573.5909130434784</v>
+      </c>
+      <c r="C45" s="35">
+        <f>'Transmission costs'!F47*1000/230</f>
+        <v>2708.2778695652173</v>
+      </c>
+      <c r="D45" s="35">
+        <f>'Transmission costs'!G47*1000/400</f>
+        <v>2325.6159750000002</v>
+      </c>
+      <c r="E45" s="35">
+        <f>'Transmission costs'!H47*1000/400</f>
+        <v>2628.0334749999997</v>
+      </c>
+      <c r="H45" s="35">
+        <f t="shared" si="1"/>
+        <v>4141.67985636087</v>
+      </c>
+      <c r="I45" s="35">
+        <f t="shared" si="1"/>
+        <v>4358.4315754913041</v>
+      </c>
+      <c r="J45" s="35">
+        <f t="shared" si="1"/>
+        <v>3742.6137885675003</v>
+      </c>
+      <c r="K45" s="35">
+        <f t="shared" si="1"/>
+        <v>4229.2942713174998</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="35">
+        <f>'Transmission costs'!E48*1000/230</f>
+        <v>2356.7902173913044</v>
+      </c>
+      <c r="C46" s="35">
+        <f>'Transmission costs'!F48*1000/230</f>
+        <v>2491.4771739130433</v>
+      </c>
+      <c r="D46" s="35">
+        <f>'Transmission costs'!G48*1000/400</f>
+        <v>2153.0093750000001</v>
+      </c>
+      <c r="E46" s="35">
+        <f>'Transmission costs'!H48*1000/400</f>
+        <v>2455.4268750000001</v>
+      </c>
+      <c r="H46" s="35">
+        <f t="shared" si="1"/>
+        <v>3792.7824968478262</v>
+      </c>
+      <c r="I46" s="35">
+        <f t="shared" si="1"/>
+        <v>4009.5342159782604</v>
+      </c>
+      <c r="J46" s="35">
+        <f t="shared" si="1"/>
+        <v>3464.8379871874999</v>
+      </c>
+      <c r="K46" s="35">
+        <f t="shared" si="1"/>
+        <v>3951.5184699375</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="35">
+        <f>'Transmission costs'!E49*1000/230</f>
+        <v>2921.157608695652</v>
+      </c>
+      <c r="C47" s="35">
+        <f>'Transmission costs'!F49*1000/230</f>
+        <v>3055.8445652173914</v>
+      </c>
+      <c r="D47" s="35">
+        <f>'Transmission costs'!G49*1000/400</f>
+        <v>2602.3331250000001</v>
+      </c>
+      <c r="E47" s="35">
+        <f>'Transmission costs'!H49*1000/400</f>
+        <v>2904.7506250000001</v>
+      </c>
+      <c r="H47" s="35">
+        <f t="shared" si="1"/>
+        <v>4701.0189396739124</v>
+      </c>
+      <c r="I47" s="35">
+        <f t="shared" si="1"/>
+        <v>4917.7706588043475</v>
+      </c>
+      <c r="J47" s="35">
+        <f t="shared" si="1"/>
+        <v>4187.9346980625005</v>
+      </c>
+      <c r="K47" s="35">
+        <f t="shared" si="1"/>
+        <v>4674.6151808125005</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="35">
+        <f>'Transmission costs'!E50*1000/230</f>
+        <v>2466.0130434782609</v>
+      </c>
+      <c r="C48" s="35">
+        <f>'Transmission costs'!F50*1000/230</f>
+        <v>2600.6999999999998</v>
+      </c>
+      <c r="D48" s="35">
+        <f>'Transmission costs'!G50*1000/400</f>
+        <v>2239.9675000000002</v>
+      </c>
+      <c r="E48" s="35">
+        <f>'Transmission costs'!H50*1000/400</f>
+        <v>2542.3850000000002</v>
+      </c>
+      <c r="H48" s="35">
+        <f t="shared" si="1"/>
+        <v>3968.5547908695653</v>
+      </c>
+      <c r="I48" s="35">
+        <f t="shared" si="1"/>
+        <v>4185.3065099999994</v>
+      </c>
+      <c r="J48" s="35">
+        <f t="shared" si="1"/>
+        <v>3604.7796977500002</v>
+      </c>
+      <c r="K48" s="35">
+        <f t="shared" si="1"/>
+        <v>4091.4601805000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="35">
+        <f>'Transmission costs'!E51*1000/230</f>
+        <v>1628.9128260869566</v>
+      </c>
+      <c r="C49" s="35">
+        <f>'Transmission costs'!F51*1000/230</f>
+        <v>1699.7103478260869</v>
+      </c>
+      <c r="D49" s="35">
+        <f>'Transmission costs'!G51*1000/400</f>
+        <v>1573.5072</v>
+      </c>
+      <c r="E49" s="35">
+        <f>'Transmission costs'!H51*1000/400</f>
+        <v>1875.9247</v>
+      </c>
+      <c r="H49" s="35">
+        <f t="shared" si="1"/>
+        <v>2621.4094110217393</v>
+      </c>
+      <c r="I49" s="35">
+        <f t="shared" si="1"/>
+        <v>2735.3438627565215</v>
+      </c>
+      <c r="J49" s="35">
+        <f t="shared" si="1"/>
+        <v>2532.2451369599999</v>
+      </c>
+      <c r="K49" s="35">
+        <f t="shared" si="1"/>
+        <v>3018.9256197099999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="35">
+        <f>'Transmission costs'!E52*1000/230</f>
+        <v>1750.4347826086957</v>
+      </c>
+      <c r="C50" s="35">
+        <f>'Transmission costs'!F52*1000/230</f>
+        <v>1885.1586956521739</v>
+      </c>
+      <c r="D50" s="35">
+        <f>'Transmission costs'!G52*1000/400</f>
+        <v>1670.2874999999999</v>
+      </c>
+      <c r="E50" s="35">
+        <f>'Transmission costs'!H52*1000/400</f>
+        <v>1972.7049999999999</v>
+      </c>
+      <c r="H50" s="35">
+        <f t="shared" si="1"/>
+        <v>2816.974695652174</v>
+      </c>
+      <c r="I50" s="35">
+        <f t="shared" si="1"/>
+        <v>3033.7858889130434</v>
+      </c>
+      <c r="J50" s="35">
+        <f t="shared" si="1"/>
+        <v>2687.9936737499997</v>
+      </c>
+      <c r="K50" s="35">
+        <f t="shared" si="1"/>
+        <v>3174.6741564999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="35">
+        <f>'Transmission costs'!E53*1000/230</f>
+        <v>2728.6206521739132</v>
+      </c>
+      <c r="C51" s="35">
+        <f>'Transmission costs'!F53*1000/230</f>
+        <v>2863.3076086956521</v>
+      </c>
+      <c r="D51" s="35">
+        <f>'Transmission costs'!G53*1000/400</f>
+        <v>2449.0443749999999</v>
+      </c>
+      <c r="E51" s="35">
+        <f>'Transmission costs'!H53*1000/400</f>
+        <v>2751.461875</v>
+      </c>
+      <c r="H51" s="35">
+        <f t="shared" si="1"/>
+        <v>4391.1692155434785</v>
+      </c>
+      <c r="I51" s="35">
+        <f t="shared" si="1"/>
+        <v>4607.9209346739126</v>
+      </c>
+      <c r="J51" s="35">
+        <f t="shared" si="1"/>
+        <v>3941.2471126874998</v>
+      </c>
+      <c r="K51" s="35">
+        <f t="shared" si="1"/>
+        <v>4427.9275954374998</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="35">
+        <f>'Transmission costs'!E54*1000/230</f>
+        <v>1690.1326086956522</v>
+      </c>
+      <c r="C52" s="35">
+        <f>'Transmission costs'!F54*1000/230</f>
+        <v>1824.8195652173913</v>
+      </c>
+      <c r="D52" s="35">
+        <f>'Transmission costs'!G54*1000/400</f>
+        <v>1622.2474999999999</v>
+      </c>
+      <c r="E52" s="35">
+        <f>'Transmission costs'!H54*1000/400</f>
+        <v>1924.665</v>
+      </c>
+      <c r="H52" s="35">
+        <f t="shared" si="1"/>
+        <v>2719.930407173913</v>
+      </c>
+      <c r="I52" s="35">
+        <f t="shared" si="1"/>
+        <v>2936.6821263043475</v>
+      </c>
+      <c r="J52" s="35">
+        <f t="shared" si="1"/>
+        <v>2610.6829017499999</v>
+      </c>
+      <c r="K52" s="35">
+        <f t="shared" si="1"/>
+        <v>3097.3633844999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="35">
+        <f>'Transmission costs'!E55*1000/230</f>
+        <v>1610.7304347826087</v>
+      </c>
+      <c r="C53" s="35">
+        <f>'Transmission costs'!F55*1000/230</f>
+        <v>1745.4173913043478</v>
+      </c>
+      <c r="D53" s="35">
+        <f>'Transmission costs'!G55*1000/400</f>
+        <v>1559.0325</v>
+      </c>
+      <c r="E53" s="35">
+        <f>'Transmission costs'!H55*1000/400</f>
+        <v>1861.45</v>
+      </c>
+      <c r="H53" s="35">
+        <f t="shared" si="1"/>
+        <v>2592.1484886956518</v>
+      </c>
+      <c r="I53" s="35">
+        <f t="shared" si="1"/>
+        <v>2808.9002078260869</v>
+      </c>
+      <c r="J53" s="35">
+        <f t="shared" si="1"/>
+        <v>2508.9510022499999</v>
+      </c>
+      <c r="K53" s="35">
+        <f t="shared" si="1"/>
+        <v>2995.6314849999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="35">
+        <f>'Transmission costs'!E56*1000/230</f>
+        <v>969.51739130434783</v>
+      </c>
+      <c r="C54" s="35">
+        <f>'Transmission costs'!F56*1000/230</f>
+        <v>1104.2043478260869</v>
+      </c>
+      <c r="D54" s="35">
+        <f>'Transmission costs'!G56*1000/400</f>
+        <v>1048.5287499999999</v>
+      </c>
+      <c r="E54" s="35">
+        <f>'Transmission costs'!H56*1000/400</f>
+        <v>1350.94625</v>
+      </c>
+      <c r="H54" s="35">
+        <f t="shared" si="1"/>
+        <v>1560.2443378260868</v>
+      </c>
+      <c r="I54" s="35">
+        <f t="shared" si="1"/>
+        <v>1776.9960569565214</v>
+      </c>
+      <c r="J54" s="35">
+        <f t="shared" si="1"/>
+        <v>1687.3973173749998</v>
+      </c>
+      <c r="K54" s="35">
+        <f t="shared" si="1"/>
+        <v>2174.0778001250001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="35">
+        <f>'Transmission costs'!E57*1000/230</f>
+        <v>2441.3413043478263</v>
+      </c>
+      <c r="C55" s="35">
+        <f>'Transmission costs'!F57*1000/230</f>
+        <v>2576.0282608695652</v>
+      </c>
+      <c r="D55" s="35">
+        <f>'Transmission costs'!G57*1000/400</f>
+        <v>2220.3249999999998</v>
+      </c>
+      <c r="E55" s="35">
+        <f>'Transmission costs'!H57*1000/400</f>
+        <v>2522.7424999999998</v>
+      </c>
+      <c r="H55" s="35">
+        <f t="shared" si="1"/>
+        <v>3928.8505610869565</v>
+      </c>
+      <c r="I55" s="35">
+        <f t="shared" si="1"/>
+        <v>4145.6022802173911</v>
+      </c>
+      <c r="J55" s="35">
+        <f t="shared" si="1"/>
+        <v>3573.1690224999998</v>
+      </c>
+      <c r="K55" s="35">
+        <f t="shared" si="1"/>
+        <v>4059.8495052499998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="35">
+        <f>'Transmission costs'!E58*1000/230</f>
+        <v>2413.2478260869566</v>
+      </c>
+      <c r="C56" s="35">
+        <f>'Transmission costs'!F58*1000/230</f>
+        <v>2547.9347826086955</v>
+      </c>
+      <c r="D56" s="35">
+        <f>'Transmission costs'!G58*1000/400</f>
+        <v>2197.9575</v>
+      </c>
+      <c r="E56" s="35">
+        <f>'Transmission costs'!H58*1000/400</f>
+        <v>2500.375</v>
+      </c>
+      <c r="H56" s="35">
+        <f t="shared" si="1"/>
+        <v>3883.6397265217392</v>
+      </c>
+      <c r="I56" s="35">
+        <f t="shared" si="1"/>
+        <v>4100.3914456521734</v>
+      </c>
+      <c r="J56" s="35">
+        <f t="shared" si="1"/>
+        <v>3537.17300475</v>
+      </c>
+      <c r="K56" s="35">
+        <f t="shared" si="1"/>
+        <v>4023.8534875</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="35">
+        <f>'Transmission costs'!E59*1000/230</f>
+        <v>1652.2391304347825</v>
+      </c>
+      <c r="C57" s="35">
+        <f>'Transmission costs'!F59*1000/230</f>
+        <v>1786.9260869565217</v>
+      </c>
+      <c r="D57" s="35">
+        <f>'Transmission costs'!G59*1000/400</f>
+        <v>1592.0775000000001</v>
+      </c>
+      <c r="E57" s="35">
+        <f>'Transmission costs'!H59*1000/400</f>
+        <v>1894.4949999999999</v>
+      </c>
+      <c r="H57" s="35">
+        <f t="shared" si="1"/>
+        <v>2658.9484326086954</v>
+      </c>
+      <c r="I57" s="35">
+        <f t="shared" si="1"/>
+        <v>2875.7001517391304</v>
+      </c>
+      <c r="J57" s="35">
+        <f t="shared" si="1"/>
+        <v>2562.13032075</v>
+      </c>
+      <c r="K57" s="35">
+        <f t="shared" si="1"/>
+        <v>3048.8108034999996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="35">
+        <f>'Transmission costs'!E60*1000/230</f>
+        <v>1781.3565217391304</v>
+      </c>
+      <c r="C58" s="35">
+        <f>'Transmission costs'!F60*1000/230</f>
+        <v>1916.0434782608695</v>
+      </c>
+      <c r="D58" s="35">
+        <f>'Transmission costs'!G60*1000/400</f>
+        <v>1694.875</v>
+      </c>
+      <c r="E58" s="35">
+        <f>'Transmission costs'!H60*1000/400</f>
+        <v>1997.2925</v>
+      </c>
+      <c r="H58" s="35">
+        <f t="shared" si="1"/>
+        <v>2866.7370504347823</v>
+      </c>
+      <c r="I58" s="35">
+        <f t="shared" si="1"/>
+        <v>3083.4887695652174</v>
+      </c>
+      <c r="J58" s="35">
+        <f t="shared" si="1"/>
+        <v>2727.5623375</v>
+      </c>
+      <c r="K58" s="35">
+        <f t="shared" si="1"/>
+        <v>3214.24282025</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="35">
+        <f>'Transmission costs'!E61*1000/230</f>
+        <v>1382.3021739130436</v>
+      </c>
+      <c r="C59" s="35">
+        <f>'Transmission costs'!F61*1000/230</f>
+        <v>1516.9891304347825</v>
+      </c>
+      <c r="D59" s="35">
+        <f>'Transmission costs'!G61*1000/400</f>
+        <v>1377.1675</v>
+      </c>
+      <c r="E59" s="35">
+        <f>'Transmission costs'!H61*1000/400</f>
+        <v>1679.585</v>
+      </c>
+      <c r="H59" s="35">
+        <f t="shared" si="1"/>
+        <v>2224.538888478261</v>
+      </c>
+      <c r="I59" s="35">
+        <f t="shared" si="1"/>
+        <v>2441.2906076086956</v>
+      </c>
+      <c r="J59" s="35">
+        <f t="shared" si="1"/>
+        <v>2216.2756577499999</v>
+      </c>
+      <c r="K59" s="35">
+        <f t="shared" si="1"/>
+        <v>2702.9561404999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="35">
+        <f>'Transmission costs'!E62*1000/230</f>
+        <v>1368.5717391304347</v>
+      </c>
+      <c r="C60" s="35">
+        <f>'Transmission costs'!F62*1000/230</f>
+        <v>1503.2586956521739</v>
+      </c>
+      <c r="D60" s="35">
+        <f>'Transmission costs'!G62*1000/400</f>
+        <v>1366.2362499999999</v>
+      </c>
+      <c r="E60" s="35">
+        <f>'Transmission costs'!H62*1000/400</f>
+        <v>1668.6537499999999</v>
+      </c>
+      <c r="H60" s="35">
+        <f t="shared" si="1"/>
+        <v>2202.4424997826086</v>
+      </c>
+      <c r="I60" s="35">
+        <f t="shared" si="1"/>
+        <v>2419.1942189130432</v>
+      </c>
+      <c r="J60" s="35">
+        <f t="shared" si="1"/>
+        <v>2198.6839971249997</v>
+      </c>
+      <c r="K60" s="35">
+        <f t="shared" si="1"/>
+        <v>2685.3644798749997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -770,24 +5042,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.86328125" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6">
-        <f>Data!B10</f>
-        <v>2248.3606557377047</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <f>AVERAGE(Calculations!H4:K60)*'2012 USD '!C28</f>
+        <v>3025.4119999569302</v>
       </c>
     </row>
   </sheetData>
